--- a/Calc/leg_wiredrive_calc.xlsx
+++ b/Calc/leg_wiredrive_calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Yuni8\Calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Yuni9\Calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B28E478-CCC0-49D1-B0DD-CCFA6D82AA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12920AD7-85C2-41F0-9211-D8C5069D5A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40500" yWindow="-4860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B5271EEE-C99B-4B4B-9345-21F6B6AFDACF}"/>
+    <workbookView xWindow="40500" yWindow="-4860" windowWidth="21600" windowHeight="11385" xr2:uid="{B5271EEE-C99B-4B4B-9345-21F6B6AFDACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -222,7 +222,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -240,16 +240,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -259,7 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -274,77 +274,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -660,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F8CCC6-67CE-49E5-B151-5C9AD044FB3E}">
   <dimension ref="B2:J337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -863,11 +792,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>C$12+C$5*F23</f>
+        <f t="shared" ref="G23:G86" si="0">C$12+C$5*F23</f>
         <v>50</v>
       </c>
       <c r="H23" s="9">
-        <f>ASIN((G23/2)/C$14)</f>
+        <f t="shared" ref="H23:H86" si="1">ASIN((G23/2)/C$14)</f>
         <v>0.20135792079033082</v>
       </c>
       <c r="I23" s="10">
@@ -883,15 +812,15 @@
         <v>0.01</v>
       </c>
       <c r="G24" s="8">
-        <f>C$12+C$5*F24</f>
+        <f t="shared" si="0"/>
         <v>50.95</v>
       </c>
       <c r="H24" s="9">
-        <f>ASIN((G24/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.20523782569021309</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" ref="I24:I87" si="0">PI()-H24</f>
+        <f t="shared" ref="I24:I87" si="2">PI()-H24</f>
         <v>2.9363548278995801</v>
       </c>
       <c r="J24" s="11">
@@ -904,19 +833,19 @@
         <v>0.02</v>
       </c>
       <c r="G25" s="8">
-        <f>C$12+C$5*F25</f>
+        <f t="shared" si="0"/>
         <v>51.9</v>
       </c>
       <c r="H25" s="9">
-        <f>ASIN((G25/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.20912086684870282</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9324717867410901</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" ref="J25:J88" si="1">$C$15*(I25-I24)</f>
+        <f t="shared" ref="J25:J88" si="3">$C$15*(I25-I24)</f>
         <v>-5.4362576218860426E-2</v>
       </c>
     </row>
@@ -925,19 +854,19 @@
         <v>0.03</v>
       </c>
       <c r="G26" s="8">
-        <f>C$12+C$5*F26</f>
+        <f t="shared" si="0"/>
         <v>52.85</v>
       </c>
       <c r="H26" s="9">
-        <f>ASIN((G26/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.21300711057600341</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9285855430137895</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4407412182208681E-2</v>
       </c>
     </row>
@@ -946,19 +875,19 @@
         <v>0.04</v>
       </c>
       <c r="G27" s="8">
-        <f>C$12+C$5*F27</f>
+        <f t="shared" si="0"/>
         <v>53.8</v>
       </c>
       <c r="H27" s="9">
-        <f>ASIN((G27/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.21689662364994672</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9246960299398466</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4453183035200858E-2</v>
       </c>
     </row>
@@ -967,19 +896,19 @@
         <v>0.05</v>
       </c>
       <c r="G28" s="8">
-        <f>C$12+C$5*F28</f>
+        <f t="shared" si="0"/>
         <v>54.75</v>
       </c>
       <c r="H28" s="9">
-        <f>ASIN((G28/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.22078947332783075</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9208031802619625</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4499895490376815E-2</v>
       </c>
     </row>
@@ -988,19 +917,19 @@
         <v>0.06</v>
       </c>
       <c r="G29" s="8">
-        <f>C$12+C$5*F29</f>
+        <f t="shared" si="0"/>
         <v>55.7</v>
       </c>
       <c r="H29" s="9">
-        <f>ASIN((G29/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.22468572735846357</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9169069262313294</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4547556428863331E-2</v>
       </c>
     </row>
@@ -1009,19 +938,19 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G30" s="8">
-        <f>C$12+C$5*F30</f>
+        <f t="shared" si="0"/>
         <v>56.65</v>
       </c>
       <c r="H30" s="9">
-        <f>ASIN((G30/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.22858545399442023</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.913007199595373</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4596172903389473E-2</v>
       </c>
     </row>
@@ -1030,19 +959,19 @@
         <v>0.08</v>
       </c>
       <c r="G31" s="8">
-        <f>C$12+C$5*F31</f>
+        <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
       <c r="H31" s="9">
-        <f>ASIN((G31/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.23248872200451931</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9091039315852738</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4645752141389003E-2</v>
       </c>
     </row>
@@ -1051,19 +980,19 @@
         <v>0.09</v>
       </c>
       <c r="G32" s="8">
-        <f>C$12+C$5*F32</f>
+        <f t="shared" si="0"/>
         <v>58.55</v>
       </c>
       <c r="H32" s="9">
-        <f>ASIN((G32/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.23639560068652571</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9051970529032674</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4696301548090354E-2</v>
       </c>
     </row>
@@ -1072,19 +1001,19 @@
         <v>0.1</v>
       </c>
       <c r="G33" s="8">
-        <f>C$12+C$5*F33</f>
+        <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
       <c r="H33" s="9">
-        <f>ASIN((G33/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.24030615988008733</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9012864937097058</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4747828709861501E-2</v>
       </c>
     </row>
@@ -1093,19 +1022,19 @@
         <v>0.11</v>
       </c>
       <c r="G34" s="8">
-        <f>C$12+C$5*F34</f>
+        <f t="shared" si="0"/>
         <v>60.45</v>
       </c>
       <c r="H34" s="9">
-        <f>ASIN((G34/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.24422046997991226</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8973721836098809</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4800341397548635E-2</v>
       </c>
     </row>
@@ -1114,19 +1043,19 @@
         <v>0.12</v>
       </c>
       <c r="G35" s="8">
-        <f>C$12+C$5*F35</f>
+        <f t="shared" si="0"/>
         <v>61.4</v>
       </c>
       <c r="H35" s="9">
-        <f>ASIN((G35/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.24813860194919463</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8934540516405987</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4853847569951597E-2</v>
       </c>
     </row>
@@ -1135,19 +1064,19 @@
         <v>0.13</v>
       </c>
       <c r="G36" s="8">
-        <f>C$12+C$5*F36</f>
+        <f t="shared" si="0"/>
         <v>62.35</v>
       </c>
       <c r="H36" s="9">
-        <f>ASIN((G36/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.25206062733329693</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8895320262564961</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4908355377436102E-2</v>
       </c>
     </row>
@@ -1156,19 +1085,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G37" s="8">
-        <f>C$12+C$5*F37</f>
+        <f t="shared" si="0"/>
         <v>63.3</v>
       </c>
       <c r="H37" s="9">
-        <f>ASIN((G37/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.25598661827369584</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8856060353160973</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.4963873165583266E-2</v>
       </c>
     </row>
@@ -1177,19 +1106,19 @@
         <v>0.15</v>
       </c>
       <c r="G38" s="8">
-        <f>C$12+C$5*F38</f>
+        <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
       <c r="H38" s="9">
-        <f>ASIN((G38/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.25991664752220128</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8816760060675919</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5020409479075383E-2</v>
       </c>
     </row>
@@ -1198,19 +1127,19 @@
         <v>0.16</v>
       </c>
       <c r="G39" s="8">
-        <f>C$12+C$5*F39</f>
+        <f t="shared" si="0"/>
         <v>65.2</v>
       </c>
       <c r="H39" s="9">
-        <f>ASIN((G39/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.26385078845545579</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8777418651343374</v>
       </c>
       <c r="J39" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5077973065563057E-2</v>
       </c>
     </row>
@@ -1219,19 +1148,19 @@
         <v>0.17</v>
       </c>
       <c r="G40" s="8">
-        <f>C$12+C$5*F40</f>
+        <f t="shared" si="0"/>
         <v>66.150000000000006</v>
       </c>
       <c r="H40" s="9">
-        <f>ASIN((G40/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.26778911508972447</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8738035385000686</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5136572879762369E-2</v>
       </c>
     </row>
@@ -1240,19 +1169,19 @@
         <v>0.18</v>
       </c>
       <c r="G41" s="8">
-        <f>C$12+C$5*F41</f>
+        <f t="shared" si="0"/>
         <v>67.099999999999994</v>
       </c>
       <c r="H41" s="9">
-        <f>ASIN((G41/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.27173170209598274</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8698609514938105</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5196218087614213E-2</v>
       </c>
     </row>
@@ -1261,19 +1190,19 @@
         <v>0.19</v>
       </c>
       <c r="G42" s="8">
-        <f>C$12+C$5*F42</f>
+        <f t="shared" si="0"/>
         <v>68.05</v>
       </c>
       <c r="H42" s="9">
-        <f>ASIN((G42/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.27567862481531369</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8659140287744793</v>
       </c>
       <c r="J42" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5256918070636374E-2</v>
       </c>
     </row>
@@ -1282,19 +1211,19 @@
         <v>0.2</v>
       </c>
       <c r="G43" s="8">
-        <f>C$12+C$5*F43</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="H43" s="9">
-        <f>ASIN((G43/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.27962995927462159</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8619626943151717</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5318682430306687E-2</v>
       </c>
     </row>
@@ -1303,19 +1232,19 @@
         <v>0.21</v>
       </c>
       <c r="G44" s="8">
-        <f>C$12+C$5*F44</f>
+        <f t="shared" si="0"/>
         <v>69.95</v>
       </c>
       <c r="H44" s="9">
-        <f>ASIN((G44/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.28358578220267483</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8580068713871185</v>
       </c>
       <c r="J44" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5381520992744626E-2</v>
       </c>
     </row>
@@ -1324,19 +1253,19 @@
         <v>0.22</v>
       </c>
       <c r="G45" s="8">
-        <f>C$12+C$5*F45</f>
+        <f t="shared" si="0"/>
         <v>70.900000000000006</v>
       </c>
       <c r="H45" s="9">
-        <f>ASIN((G45/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.28754617104648633</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.854046482543307</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5445443813361805E-2</v>
       </c>
     </row>
@@ -1345,19 +1274,19 @@
         <v>0.23</v>
       </c>
       <c r="G46" s="8">
-        <f>C$12+C$5*F46</f>
+        <f t="shared" si="0"/>
         <v>71.849999999999994</v>
       </c>
       <c r="H46" s="9">
-        <f>ASIN((G46/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.29151120398804237</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8500814496017508</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5510461181786042E-2</v>
       </c>
     </row>
@@ -1366,19 +1295,19 @@
         <v>0.24</v>
       </c>
       <c r="G47" s="8">
-        <f>C$12+C$5*F47</f>
+        <f t="shared" si="0"/>
         <v>72.8</v>
       </c>
       <c r="H47" s="9">
-        <f>ASIN((G47/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.29548095996139218</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.846111693628401</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5576583626897325E-2</v>
       </c>
     </row>
@@ -1387,19 +1316,19 @@
         <v>0.25</v>
       </c>
       <c r="G48" s="8">
-        <f>C$12+C$5*F48</f>
+        <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
       <c r="H48" s="9">
-        <f>ASIN((G48/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.29945551867010772</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8421371349196853</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5643821922019221E-2</v>
       </c>
     </row>
@@ -1408,19 +1337,19 @@
         <v>0.26</v>
       </c>
       <c r="G49" s="8">
-        <f>C$12+C$5*F49</f>
+        <f t="shared" si="0"/>
         <v>74.7</v>
       </c>
       <c r="H49" s="9">
-        <f>ASIN((G49/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.30343496060512765</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8381576929846655</v>
       </c>
       <c r="J49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5712187090278142E-2</v>
       </c>
     </row>
@@ -1429,19 +1358,19 @@
         <v>0.27</v>
       </c>
       <c r="G50" s="8">
-        <f>C$12+C$5*F50</f>
+        <f t="shared" si="0"/>
         <v>75.650000000000006</v>
       </c>
       <c r="H50" s="9">
-        <f>ASIN((G50/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.30741936706299483</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8341732865267981</v>
       </c>
       <c r="J50" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5781690410142915E-2</v>
       </c>
     </row>
@@ -1450,19 +1379,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G51" s="8">
-        <f>C$12+C$5*F51</f>
+        <f t="shared" si="0"/>
         <v>76.599999999999994</v>
       </c>
       <c r="H51" s="9">
-        <f>ASIN((G51/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.31140882016450289</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8301838334252905</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5852343421107342E-2</v>
       </c>
     </row>
@@ -1471,19 +1400,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G52" s="8">
-        <f>C$12+C$5*F52</f>
+        <f t="shared" si="0"/>
         <v>77.55</v>
       </c>
       <c r="H52" s="9">
-        <f>ASIN((G52/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.31540340287376334</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8261892507160296</v>
       </c>
       <c r="J52" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.5924157929652552E-2</v>
       </c>
     </row>
@@ -1492,19 +1421,19 @@
         <v>0.3</v>
       </c>
       <c r="G53" s="8">
-        <f>C$12+C$5*F53</f>
+        <f t="shared" si="0"/>
         <v>78.5</v>
       </c>
       <c r="H53" s="9">
-        <f>ASIN((G53/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.31940319901770575</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8221894545720874</v>
       </c>
       <c r="J53" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.599714601519068E-2</v>
       </c>
     </row>
@@ -1513,19 +1442,19 @@
         <v>0.31</v>
       </c>
       <c r="G54" s="8">
-        <f>C$12+C$5*F54</f>
+        <f t="shared" si="0"/>
         <v>79.45</v>
       </c>
       <c r="H54" s="9">
-        <f>ASIN((G54/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.32340829330602777</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8181843602837655</v>
       </c>
       <c r="J54" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6071320036505945E-2</v>
       </c>
     </row>
@@ -1534,19 +1463,19 @@
         <v>0.32</v>
       </c>
       <c r="G55" s="8">
-        <f>C$12+C$5*F55</f>
+        <f t="shared" si="0"/>
         <v>80.400000000000006</v>
       </c>
       <c r="H55" s="9">
-        <f>ASIN((G55/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.32741877135160635</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8141738822381868</v>
       </c>
       <c r="J55" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6146692638102458E-2</v>
       </c>
     </row>
@@ -1555,19 +1484,19 @@
         <v>0.33</v>
       </c>
       <c r="G56" s="8">
-        <f>C$12+C$5*F56</f>
+        <f t="shared" si="0"/>
         <v>81.349999999999994</v>
       </c>
       <c r="H56" s="9">
-        <f>ASIN((G56/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.33143471969138755</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8101579338984055</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6223276756937501E-2</v>
       </c>
     </row>
@@ -1576,19 +1505,19 @@
         <v>0.34</v>
       </c>
       <c r="G57" s="8">
-        <f>C$12+C$5*F57</f>
+        <f t="shared" si="0"/>
         <v>82.300000000000011</v>
       </c>
       <c r="H57" s="9">
-        <f>ASIN((G57/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.33545622580776885</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8061364277820244</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6301085629335113E-2</v>
       </c>
     </row>
@@ -1597,19 +1526,19 @@
         <v>0.35</v>
       </c>
       <c r="G58" s="8">
-        <f>C$12+C$5*F58</f>
+        <f t="shared" si="0"/>
         <v>83.25</v>
       </c>
       <c r="H58" s="9">
-        <f>ASIN((G58/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.33948337815049029</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8021092754393027</v>
       </c>
       <c r="J58" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6380132798104832E-2</v>
       </c>
     </row>
@@ -1618,19 +1547,19 @@
         <v>0.36</v>
       </c>
       <c r="G59" s="8">
-        <f>C$12+C$5*F59</f>
+        <f t="shared" si="0"/>
         <v>84.199999999999989</v>
       </c>
       <c r="H59" s="9">
-        <f>ASIN((G59/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.34351626615905217</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7980763874307408</v>
       </c>
       <c r="J59" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6460432119865622E-2</v>
       </c>
     </row>
@@ -1639,19 +1568,19 @@
         <v>0.37</v>
       </c>
       <c r="G60" s="8">
-        <f>C$12+C$5*F60</f>
+        <f t="shared" si="0"/>
         <v>85.15</v>
       </c>
       <c r="H60" s="9">
-        <f>ASIN((G60/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.34755498028567583</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7940376733041172</v>
       </c>
       <c r="J60" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.654199777273039E-2</v>
       </c>
     </row>
@@ -1660,19 +1589,19 @@
         <v>0.38</v>
       </c>
       <c r="G61" s="8">
-        <f>C$12+C$5*F61</f>
+        <f t="shared" si="0"/>
         <v>86.1</v>
       </c>
       <c r="H61" s="9">
-        <f>ASIN((G61/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.35159961201882384</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7899930415709693</v>
       </c>
       <c r="J61" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6624844264071328E-2</v>
       </c>
     </row>
@@ -1681,19 +1610,19 @@
         <v>0.39</v>
       </c>
       <c r="G62" s="8">
-        <f>C$12+C$5*F62</f>
+        <f t="shared" si="0"/>
         <v>87.050000000000011</v>
       </c>
       <c r="H62" s="9">
-        <f>ASIN((G62/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.35565025390730165</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7859423996824915</v>
       </c>
       <c r="J62" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6708986438689379E-2</v>
       </c>
     </row>
@@ -1702,19 +1631,19 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="8">
-        <f>C$12+C$5*F63</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="H63" s="9">
-        <f>ASIN((G63/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.35970699958495655</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7818856540048365</v>
       </c>
       <c r="J63" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6794439487170223E-2</v>
       </c>
     </row>
@@ -1723,19 +1652,19 @@
         <v>0.41</v>
       </c>
       <c r="G64" s="8">
-        <f>C$12+C$5*F64</f>
+        <f t="shared" si="0"/>
         <v>88.949999999999989</v>
       </c>
       <c r="H64" s="9">
-        <f>ASIN((G64/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.36376994379599625</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7778227097937966</v>
       </c>
       <c r="J64" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6881218954557333E-2</v>
       </c>
     </row>
@@ -1744,19 +1673,19 @@
         <v>0.42</v>
       </c>
       <c r="G65" s="8">
-        <f>C$12+C$5*F65</f>
+        <f t="shared" si="0"/>
         <v>89.9</v>
       </c>
       <c r="H65" s="9">
-        <f>ASIN((G65/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.36783918242094632</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7737534711688467</v>
       </c>
       <c r="J65" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.6969340749298603E-2</v>
       </c>
     </row>
@@ -1765,19 +1694,19 @@
         <v>0.43</v>
       </c>
       <c r="G66" s="8">
-        <f>C$12+C$5*F66</f>
+        <f t="shared" si="0"/>
         <v>90.85</v>
       </c>
       <c r="H66" s="9">
-        <f>ASIN((G66/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.37191481250326808</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.769677841086525</v>
       </c>
       <c r="J66" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7058821152503825E-2</v>
       </c>
     </row>
@@ -1786,19 +1715,19 @@
         <v>0.44</v>
       </c>
       <c r="G67" s="8">
-        <f>C$12+C$5*F67</f>
+        <f t="shared" si="0"/>
         <v>91.8</v>
       </c>
       <c r="H67" s="9">
-        <f>ASIN((G67/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.37599693227666187</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7655957213131312</v>
       </c>
       <c r="J67" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7149676827513041E-2</v>
       </c>
     </row>
@@ -1807,19 +1736,19 @@
         <v>0.45</v>
       </c>
       <c r="G68" s="8">
-        <f>C$12+C$5*F68</f>
+        <f t="shared" si="0"/>
         <v>92.75</v>
       </c>
       <c r="H68" s="9">
-        <f>ASIN((G68/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.38008564119307431</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7615070123967187</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7241924829775748E-2</v>
       </c>
     </row>
@@ -1828,19 +1757,19 @@
         <v>0.46</v>
       </c>
       <c r="G69" s="8">
-        <f>C$12+C$5*F69</f>
+        <f t="shared" si="0"/>
         <v>93.7</v>
       </c>
       <c r="H69" s="9">
-        <f>ASIN((G69/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.38418103995143776</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7574116136383555</v>
       </c>
       <c r="J69" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7335582617084491E-2</v>
       </c>
     </row>
@@ -1849,19 +1778,19 @@
         <v>0.47</v>
       </c>
       <c r="G70" s="8">
-        <f>C$12+C$5*F70</f>
+        <f t="shared" si="0"/>
         <v>94.65</v>
       </c>
       <c r="H70" s="9">
-        <f>ASIN((G70/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.38828323052716529</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7533094230626278</v>
       </c>
       <c r="J70" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7430668060187706E-2</v>
       </c>
     </row>
@@ -1870,19 +1799,19 @@
         <v>0.48</v>
       </c>
       <c r="G71" s="8">
-        <f>C$12+C$5*F71</f>
+        <f t="shared" si="0"/>
         <v>95.6</v>
       </c>
       <c r="H71" s="9">
-        <f>ASIN((G71/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.39239231620242704</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7492003373873661</v>
       </c>
       <c r="J71" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7527199453663691E-2</v>
       </c>
     </row>
@@ -1891,19 +1820,19 @@
         <v>0.49</v>
       </c>
       <c r="G72" s="8">
-        <f>C$12+C$5*F72</f>
+        <f t="shared" si="0"/>
         <v>96.55</v>
       </c>
       <c r="H72" s="9">
-        <f>ASIN((G72/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.39650840159723649</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7450842519925565</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7625195527335471E-2</v>
       </c>
     </row>
@@ -1912,19 +1841,19 @@
         <v>0.5</v>
       </c>
       <c r="G73" s="8">
-        <f>C$12+C$5*F73</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="H73" s="9">
-        <f>ASIN((G73/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.40063159270137194</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.740961060888421</v>
       </c>
       <c r="J73" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7724675457897057E-2</v>
       </c>
     </row>
@@ -1933,19 +1862,19 @@
         <v>0.51</v>
       </c>
       <c r="G74" s="8">
-        <f>C$12+C$5*F74</f>
+        <f t="shared" si="0"/>
         <v>98.45</v>
       </c>
       <c r="H74" s="9">
-        <f>ASIN((G74/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.40476199690716635</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7368306566826268</v>
       </c>
       <c r="J74" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7825658881117903E-2</v>
       </c>
     </row>
@@ -1954,19 +1883,19 @@
         <v>0.52</v>
       </c>
       <c r="G75" s="8">
-        <f>C$12+C$5*F75</f>
+        <f t="shared" si="0"/>
         <v>99.4</v>
       </c>
       <c r="H75" s="9">
-        <f>ASIN((G75/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.40889972304319311</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7326929305465999</v>
       </c>
       <c r="J75" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.7928165904376883E-2</v>
       </c>
     </row>
@@ -1975,19 +1904,19 @@
         <v>0.53</v>
       </c>
       <c r="G76" s="8">
-        <f>C$12+C$5*F76</f>
+        <f t="shared" si="0"/>
         <v>100.35</v>
       </c>
       <c r="H76" s="9">
-        <f>ASIN((G76/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.41304488140888079</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7285477721809124</v>
       </c>
       <c r="J76" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8032217119625251E-2</v>
       </c>
     </row>
@@ -1996,19 +1925,19 @@
         <v>0.54</v>
       </c>
       <c r="G77" s="8">
-        <f>C$12+C$5*F77</f>
+        <f t="shared" si="0"/>
         <v>101.30000000000001</v>
       </c>
       <c r="H77" s="9">
-        <f>ASIN((G77/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.41719758381008931</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7243950697797037</v>
       </c>
       <c r="J77" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8137833616921597E-2</v>
       </c>
     </row>
@@ -2017,19 +1946,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G78" s="8">
-        <f>C$12+C$5*F78</f>
+        <f t="shared" si="0"/>
         <v>102.25</v>
       </c>
       <c r="H78" s="9">
-        <f>ASIN((G78/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.42135794359568229</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7202347099941107</v>
       </c>
       <c r="J78" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8245036998302524E-2</v>
       </c>
     </row>
@@ -2038,19 +1967,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G79" s="8">
-        <f>C$12+C$5*F79</f>
+        <f t="shared" si="0"/>
         <v>103.2</v>
       </c>
       <c r="H79" s="9">
-        <f>ASIN((G79/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.42552607569513234</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7160665778946607</v>
       </c>
       <c r="J79" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8353849392299928E-2</v>
       </c>
     </row>
@@ -2059,19 +1988,19 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G80" s="8">
-        <f>C$12+C$5*F80</f>
+        <f t="shared" si="0"/>
         <v>104.15</v>
       </c>
       <c r="H80" s="9">
-        <f>ASIN((G80/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.42970209665719411</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7118905569325991</v>
       </c>
       <c r="J80" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8464293468862394E-2</v>
       </c>
     </row>
@@ -2080,19 +2009,19 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G81" s="8">
-        <f>C$12+C$5*F81</f>
+        <f t="shared" si="0"/>
         <v>105.1</v>
       </c>
       <c r="H81" s="9">
-        <f>ASIN((G81/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.43388612468968729</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7077065289001059</v>
       </c>
       <c r="J81" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8576392454904536E-2</v>
       </c>
     </row>
@@ -2101,19 +2030,19 @@
         <v>0.59</v>
       </c>
       <c r="G82" s="8">
-        <f>C$12+C$5*F82</f>
+        <f t="shared" si="0"/>
         <v>106.05</v>
       </c>
       <c r="H82" s="9">
-        <f>ASIN((G82/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.43807827970042768</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7035143738893654</v>
       </c>
       <c r="J82" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.869017015036615E-2</v>
       </c>
     </row>
@@ -2122,19 +2051,19 @@
         <v>0.6</v>
       </c>
       <c r="G83" s="8">
-        <f>C$12+C$5*F83</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="H83" s="9">
-        <f>ASIN((G83/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.44227868333934994</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6993139702504432</v>
       </c>
       <c r="J83" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8805650944911747E-2</v>
       </c>
     </row>
@@ -2143,19 +2072,19 @@
         <v>0.61</v>
       </c>
       <c r="G84" s="8">
-        <f>C$12+C$5*F84</f>
+        <f t="shared" si="0"/>
         <v>107.94999999999999</v>
       </c>
       <c r="H84" s="9">
-        <f>ASIN((G84/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.44648745904186543</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6951051945479279</v>
       </c>
       <c r="J84" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.8922859835214503E-2</v>
       </c>
     </row>
@@ -2164,19 +2093,19 @@
         <v>0.62</v>
       </c>
       <c r="G85" s="8">
-        <f>C$12+C$5*F85</f>
+        <f t="shared" si="0"/>
         <v>108.9</v>
       </c>
       <c r="H85" s="9">
-        <f>ASIN((G85/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.45070473207350215</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6908879215162909</v>
       </c>
       <c r="J85" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9041822442917891E-2</v>
       </c>
     </row>
@@ -2185,19 +2114,19 @@
         <v>0.63</v>
       </c>
       <c r="G86" s="8">
-        <f>C$12+C$5*F86</f>
+        <f t="shared" si="0"/>
         <v>109.85</v>
       </c>
       <c r="H86" s="9">
-        <f>ASIN((G86/2)/C$14)</f>
+        <f t="shared" si="1"/>
         <v>0.45493062957587388</v>
       </c>
       <c r="I86" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6866620240139194</v>
       </c>
       <c r="J86" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9162565033200387E-2</v>
       </c>
     </row>
@@ -2206,19 +2135,19 @@
         <v>0.64</v>
       </c>
       <c r="G87" s="8">
-        <f>C$12+C$5*F87</f>
+        <f t="shared" ref="G87:G150" si="4">C$12+C$5*F87</f>
         <v>110.80000000000001</v>
       </c>
       <c r="H87" s="9">
-        <f>ASIN((G87/2)/C$14)</f>
+        <f t="shared" ref="H87:H150" si="5">ASIN((G87/2)/C$14)</f>
         <v>0.45916528061403017</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6824273729757628</v>
       </c>
       <c r="J87" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9285114534191941E-2</v>
       </c>
     </row>
@@ -2227,19 +2156,19 @@
         <v>0.65</v>
       </c>
       <c r="G88" s="8">
-        <f>C$12+C$5*F88</f>
+        <f t="shared" si="4"/>
         <v>111.75</v>
       </c>
       <c r="H88" s="9">
-        <f>ASIN((G88/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.46340881622523711</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" ref="I88:I151" si="2">PI()-H88</f>
+        <f t="shared" ref="I88:I151" si="6">PI()-H88</f>
         <v>2.6781838373645561</v>
       </c>
       <c r="J88" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.9409498556894036E-2</v>
       </c>
     </row>
@@ -2248,19 +2177,19 @@
         <v>0.66</v>
       </c>
       <c r="G89" s="8">
-        <f>C$12+C$5*F89</f>
+        <f t="shared" si="4"/>
         <v>112.7</v>
       </c>
       <c r="H89" s="9">
-        <f>ASIN((G89/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.46766136946924702</v>
       </c>
       <c r="I89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6739312841205463</v>
       </c>
       <c r="J89" s="11">
-        <f t="shared" ref="J89:J152" si="3">$C$15*(I89-I88)</f>
+        <f t="shared" ref="J89:J152" si="7">$C$15*(I89-I88)</f>
         <v>-5.9535745416138042E-2</v>
       </c>
     </row>
@@ -2269,19 +2198,19 @@
         <v>0.67</v>
       </c>
       <c r="G90" s="8">
-        <f>C$12+C$5*F90</f>
+        <f t="shared" si="4"/>
         <v>113.65</v>
       </c>
       <c r="H90" s="9">
-        <f>ASIN((G90/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.47192307548011159</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6696695781096818</v>
       </c>
       <c r="J90" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.9663884152103108E-2</v>
       </c>
     </row>
@@ -2290,19 +2219,19 @@
         <v>0.68</v>
       </c>
       <c r="G91" s="8">
-        <f>C$12+C$5*F91</f>
+        <f t="shared" si="4"/>
         <v>114.60000000000001</v>
       </c>
       <c r="H91" s="9">
-        <f>ASIN((G91/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.47619407151959953</v>
       </c>
       <c r="I91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6653985820701935</v>
       </c>
       <c r="J91" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.9793944552835043E-2</v>
       </c>
     </row>
@@ -2311,19 +2240,19 @@
         <v>0.69</v>
       </c>
       <c r="G92" s="8">
-        <f>C$12+C$5*F92</f>
+        <f t="shared" si="4"/>
         <v>115.55</v>
       </c>
       <c r="H92" s="9">
-        <f>ASIN((G92/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.4804744970322814</v>
       </c>
       <c r="I92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6611181565575119</v>
       </c>
       <c r="J92" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.9925957177542344E-2</v>
       </c>
     </row>
@@ -2332,19 +2261,19 @@
         <v>0.7</v>
       </c>
       <c r="G93" s="8">
-        <f>C$12+C$5*F93</f>
+        <f t="shared" si="4"/>
         <v>116.5</v>
       </c>
       <c r="H93" s="9">
-        <f>ASIN((G93/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.4847644937023467</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6568281598874464</v>
       </c>
       <c r="J93" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0059953380918074E-2</v>
       </c>
     </row>
@@ -2353,19 +2282,19 @@
         <v>0.71</v>
       </c>
       <c r="G94" s="8">
-        <f>C$12+C$5*F94</f>
+        <f t="shared" si="4"/>
         <v>117.45</v>
       </c>
       <c r="H94" s="9">
-        <f>ASIN((G94/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.48906420551222141</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6525284480775717</v>
       </c>
       <c r="J94" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0195965338245117E-2</v>
       </c>
     </row>
@@ -2374,19 +2303,19 @@
         <v>0.72</v>
       </c>
       <c r="G95" s="8">
-        <f>C$12+C$5*F95</f>
+        <f t="shared" si="4"/>
         <v>118.39999999999999</v>
       </c>
       <c r="H95" s="9">
-        <f>ASIN((G95/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.49337377880305933</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6482188747867337</v>
       </c>
       <c r="J95" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0334026071732438E-2</v>
       </c>
     </row>
@@ -2395,19 +2324,19 @@
         <v>0.73</v>
       </c>
       <c r="G96" s="8">
-        <f>C$12+C$5*F96</f>
+        <f t="shared" si="4"/>
         <v>119.35</v>
       </c>
       <c r="H96" s="9">
-        <f>ASIN((G96/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.49769336233718003</v>
       </c>
       <c r="I96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6438992912526129</v>
       </c>
       <c r="J96" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0474169477690687E-2</v>
       </c>
     </row>
@@ -2416,19 +2345,19 @@
         <v>0.74</v>
       </c>
       <c r="G97" s="8">
-        <f>C$12+C$5*F97</f>
+        <f t="shared" si="4"/>
         <v>120.3</v>
       </c>
       <c r="H97" s="9">
-        <f>ASIN((G97/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.50202310736253319</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6395695462272597</v>
       </c>
       <c r="J97" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0616430354945017E-2</v>
       </c>
     </row>
@@ -2437,19 +2366,19 @@
         <v>0.75</v>
       </c>
       <c r="G98" s="8">
-        <f>C$12+C$5*F98</f>
+        <f t="shared" si="4"/>
         <v>121.25</v>
       </c>
       <c r="H98" s="9">
-        <f>ASIN((G98/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.5063631676792727</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6352294859105205</v>
       </c>
       <c r="J98" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0760844434348371E-2</v>
       </c>
     </row>
@@ -2458,19 +2387,19 @@
         <v>0.76</v>
       </c>
       <c r="G99" s="8">
-        <f>C$12+C$5*F99</f>
+        <f t="shared" si="4"/>
         <v>122.2</v>
       </c>
       <c r="H99" s="9">
-        <f>ASIN((G99/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.5107136997085242</v>
       </c>
       <c r="I99" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6308789538812691</v>
       </c>
       <c r="J99" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.090744840951956E-2</v>
       </c>
     </row>
@@ -2479,19 +2408,19 @@
         <v>0.77</v>
       </c>
       <c r="G100" s="8">
-        <f>C$12+C$5*F100</f>
+        <f t="shared" si="4"/>
         <v>123.15</v>
       </c>
       <c r="H100" s="9">
-        <f>ASIN((G100/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.51507486256343982</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6265177910263535</v>
       </c>
       <c r="J100" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1056279968818572E-2</v>
       </c>
     </row>
@@ -2500,19 +2429,19 @@
         <v>0.78</v>
       </c>
       <c r="G101" s="8">
-        <f>C$12+C$5*F101</f>
+        <f t="shared" si="4"/>
         <v>124.10000000000001</v>
       </c>
       <c r="H101" s="9">
-        <f>ASIN((G101/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.51944681812263194</v>
       </c>
       <c r="I101" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.622145835467161</v>
       </c>
       <c r="J101" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1207377828695897E-2</v>
       </c>
     </row>
@@ -2521,19 +2450,19 @@
         <v>0.79</v>
       </c>
       <c r="G102" s="8">
-        <f>C$12+C$5*F102</f>
+        <f t="shared" si="4"/>
         <v>125.05</v>
       </c>
       <c r="H102" s="9">
-        <f>ASIN((G102/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.52382973110608844</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6177629224837045</v>
       </c>
       <c r="J102" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1360781768390993E-2</v>
       </c>
     </row>
@@ -2542,19 +2471,19 @@
         <v>0.8</v>
       </c>
       <c r="G103" s="8">
-        <f>C$12+C$5*F103</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="H103" s="9">
-        <f>ASIN((G103/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.5282237691536712</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.613368884436122</v>
       </c>
       <c r="J103" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1516532666153978E-2</v>
       </c>
     </row>
@@ -2563,19 +2492,19 @@
         <v>0.81</v>
       </c>
       <c r="G104" s="8">
-        <f>C$12+C$5*F104</f>
+        <f t="shared" si="4"/>
         <v>126.95</v>
       </c>
       <c r="H104" s="9">
-        <f>ASIN((G104/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.53262910290631016</v>
       </c>
       <c r="I104" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.608963550683483</v>
       </c>
       <c r="J104" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1674672536947028E-2</v>
       </c>
     </row>
@@ -2584,19 +2513,19 @@
         <v>0.82</v>
       </c>
       <c r="G105" s="8">
-        <f>C$12+C$5*F105</f>
+        <f t="shared" si="4"/>
         <v>127.89999999999999</v>
       </c>
       <c r="H105" s="9">
-        <f>ASIN((G105/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.5370459060900058</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6045467474997874</v>
       </c>
       <c r="J105" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1835244571737391E-2</v>
       </c>
     </row>
@@ -2605,19 +2534,19 @@
         <v>0.83</v>
       </c>
       <c r="G106" s="8">
-        <f>C$12+C$5*F106</f>
+        <f t="shared" si="4"/>
         <v>128.85</v>
       </c>
       <c r="H106" s="9">
-        <f>ASIN((G106/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.54147435560276469</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.6001182979870285</v>
       </c>
       <c r="J106" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.1998293178624486E-2</v>
       </c>
     </row>
@@ -2626,19 +2555,19 @@
         <v>0.84</v>
       </c>
       <c r="G107" s="8">
-        <f>C$12+C$5*F107</f>
+        <f t="shared" si="4"/>
         <v>129.80000000000001</v>
       </c>
       <c r="H107" s="9">
-        <f>ASIN((G107/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.54591463160458942</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5956780219852038</v>
       </c>
       <c r="J107" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.2163864025546189E-2</v>
       </c>
     </row>
@@ -2647,19 +2576,19 @@
         <v>0.85</v>
       </c>
       <c r="G108" s="8">
-        <f>C$12+C$5*F108</f>
+        <f t="shared" si="4"/>
         <v>130.75</v>
       </c>
       <c r="H108" s="9">
-        <f>ASIN((G108/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.55036691761066414</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5912257359791289</v>
       </c>
       <c r="J108" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.2332004085049242E-2</v>
       </c>
     </row>
@@ -2668,19 +2597,19 @@
         <v>0.86</v>
       </c>
       <c r="G109" s="8">
-        <f>C$12+C$5*F109</f>
+        <f t="shared" si="4"/>
         <v>131.69999999999999</v>
       </c>
       <c r="H109" s="9">
-        <f>ASIN((G109/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.55483140058787062</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5867612530019226</v>
       </c>
       <c r="J109" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.2502761680887531E-2</v>
       </c>
     </row>
@@ -2689,19 +2618,19 @@
         <v>0.87</v>
       </c>
       <c r="G110" s="8">
-        <f>C$12+C$5*F110</f>
+        <f t="shared" si="4"/>
         <v>132.65</v>
       </c>
       <c r="H110" s="9">
-        <f>ASIN((G110/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.55930827105478687</v>
       </c>
       <c r="I110" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5822843825350064</v>
       </c>
       <c r="J110" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.2676186536827494E-2</v>
       </c>
     </row>
@@ -2710,19 +2639,19 @@
         <v>0.88</v>
       </c>
       <c r="G111" s="8">
-        <f>C$12+C$5*F111</f>
+        <f t="shared" si="4"/>
         <v>133.6</v>
       </c>
       <c r="H111" s="9">
-        <f>ASIN((G111/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.56379772318531973</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5777949304044734</v>
       </c>
       <c r="J111" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.2852329827461695E-2</v>
       </c>
     </row>
@@ -2731,19 +2660,19 @@
         <v>0.89</v>
       </c>
       <c r="G112" s="8">
-        <f>C$12+C$5*F112</f>
+        <f t="shared" si="4"/>
         <v>134.55000000000001</v>
       </c>
       <c r="H112" s="9">
-        <f>ASIN((G112/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.56829995491614349</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5732926986736495</v>
       </c>
       <c r="J112" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3031244231534167E-2</v>
       </c>
     </row>
@@ -2752,19 +2681,19 @@
         <v>0.9</v>
       </c>
       <c r="G113" s="8">
-        <f>C$12+C$5*F113</f>
+        <f t="shared" si="4"/>
         <v>135.5</v>
       </c>
       <c r="H113" s="9">
-        <f>ASIN((G113/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.57281516805810795</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5687774855316849</v>
       </c>
       <c r="J113" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3212983987503968E-2</v>
       </c>
     </row>
@@ -2773,19 +2702,19 @@
         <v>0.91</v>
       </c>
       <c r="G114" s="8">
-        <f>C$12+C$5*F114</f>
+        <f t="shared" si="4"/>
         <v>136.44999999999999</v>
       </c>
       <c r="H114" s="9">
-        <f>ASIN((G114/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.5773435684118069</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5642490851779862</v>
       </c>
       <c r="J114" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3397604951782149E-2</v>
       </c>
     </row>
@@ -2794,19 +2723,19 @@
         <v>0.92</v>
       </c>
       <c r="G115" s="8">
-        <f>C$12+C$5*F115</f>
+        <f t="shared" si="4"/>
         <v>137.4</v>
       </c>
       <c r="H115" s="9">
-        <f>ASIN((G115/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.58188536588749407</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5597072877022988</v>
       </c>
       <c r="J115" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3585164659623494E-2</v>
       </c>
     </row>
@@ -2815,19 +2744,19 @@
         <v>0.93</v>
       </c>
       <c r="G116" s="8">
-        <f>C$12+C$5*F116</f>
+        <f t="shared" si="4"/>
         <v>138.35000000000002</v>
       </c>
       <c r="H116" s="9">
-        <f>ASIN((G116/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.58644077462955202</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.555151878960241</v>
       </c>
       <c r="J116" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3775722388809797E-2</v>
       </c>
     </row>
@@ -2836,19 +2765,19 @@
         <v>0.94</v>
       </c>
       <c r="G117" s="8">
-        <f>C$12+C$5*F117</f>
+        <f t="shared" si="4"/>
         <v>139.30000000000001</v>
       </c>
       <c r="H117" s="9">
-        <f>ASIN((G117/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.59101001314572743</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5505826404440657</v>
       </c>
       <c r="J117" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.3969339226454203E-2</v>
       </c>
     </row>
@@ -2857,19 +2786,19 @@
         <v>0.95</v>
       </c>
       <c r="G118" s="8">
-        <f>C$12+C$5*F118</f>
+        <f t="shared" si="4"/>
         <v>140.25</v>
       </c>
       <c r="H118" s="9">
-        <f>ASIN((G118/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.59559330444136049</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5459993491484325</v>
       </c>
       <c r="J118" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.4166078138864435E-2</v>
       </c>
     </row>
@@ -2878,19 +2807,19 @@
         <v>0.96</v>
       </c>
       <c r="G119" s="8">
-        <f>C$12+C$5*F119</f>
+        <f t="shared" si="4"/>
         <v>141.19999999999999</v>
       </c>
       <c r="H119" s="9">
-        <f>ASIN((G119/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.60019087615884348</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5414017774309494</v>
       </c>
       <c r="J119" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.4366004044763336E-2</v>
       </c>
     </row>
@@ -2899,19 +2828,19 @@
         <v>0.97</v>
       </c>
       <c r="G120" s="8">
-        <f>C$12+C$5*F120</f>
+        <f t="shared" si="4"/>
         <v>142.14999999999998</v>
       </c>
       <c r="H120" s="9">
-        <f>ASIN((G120/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.60480296072256789</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5367896928672251</v>
       </c>
       <c r="J120" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.4569183892140281E-2</v>
       </c>
     </row>
@@ -2920,19 +2849,19 @@
         <v>0.98</v>
       </c>
       <c r="G121" s="8">
-        <f>C$12+C$5*F121</f>
+        <f t="shared" si="4"/>
         <v>143.1</v>
       </c>
       <c r="H121" s="9">
-        <f>ASIN((G121/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.60942979548962029</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5321628581001727</v>
       </c>
       <c r="J121" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.4775686738733462E-2</v>
       </c>
     </row>
@@ -2941,19 +2870,19 @@
         <v>0.99</v>
       </c>
       <c r="G122" s="8">
-        <f>C$12+C$5*F122</f>
+        <f t="shared" si="4"/>
         <v>144.05000000000001</v>
       </c>
       <c r="H122" s="9">
-        <f>ASIN((G122/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.61407162290651296</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.52752103068328</v>
       </c>
       <c r="J122" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.498558383649744E-2</v>
       </c>
     </row>
@@ -2962,19 +2891,19 @@
         <v>1</v>
       </c>
       <c r="G123" s="8">
-        <f>C$12+C$5*F123</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="H123" s="9">
-        <f>ASIN((G123/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.618728690672251</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5228639629175422</v>
       </c>
       <c r="J123" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.5198948720329497E-2</v>
       </c>
     </row>
@@ -2983,19 +2912,19 @@
         <v>1.01</v>
       </c>
       <c r="G124" s="8">
-        <f>C$12+C$5*F124</f>
+        <f t="shared" si="4"/>
         <v>145.94999999999999</v>
       </c>
       <c r="H124" s="9">
-        <f>ASIN((G124/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.62340125190804696</v>
       </c>
       <c r="I124" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5181914016817464</v>
       </c>
       <c r="J124" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.5415857301141855E-2</v>
       </c>
     </row>
@@ -3004,19 +2933,19 @@
         <v>1.02</v>
       </c>
       <c r="G125" s="8">
-        <f>C$12+C$5*F125</f>
+        <f t="shared" si="4"/>
         <v>146.9</v>
       </c>
       <c r="H125" s="9">
-        <f>ASIN((G125/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.62808956533402294</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5135030882557703</v>
       </c>
       <c r="J125" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.5636387963665221E-2</v>
       </c>
     </row>
@@ -3025,19 +2954,19 @@
         <v>1.03</v>
       </c>
       <c r="G126" s="8">
-        <f>C$12+C$5*F126</f>
+        <f t="shared" si="4"/>
         <v>147.85000000000002</v>
       </c>
       <c r="H126" s="9">
-        <f>ASIN((G126/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.63279389545325571</v>
       </c>
       <c r="I126" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5087987581365372</v>
       </c>
       <c r="J126" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.5860621669263431E-2</v>
       </c>
     </row>
@@ -3046,19 +2975,19 @@
         <v>1.04</v>
       </c>
       <c r="G127" s="8">
-        <f>C$12+C$5*F127</f>
+        <f t="shared" si="4"/>
         <v>148.80000000000001</v>
       </c>
       <c r="H127" s="9">
-        <f>ASIN((G127/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.63751451274354032</v>
       </c>
       <c r="I127" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5040781408462527</v>
       </c>
       <c r="J127" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.6088642063983016E-2</v>
       </c>
     </row>
@@ -3067,19 +2996,19 @@
         <v>1.05</v>
       </c>
       <c r="G128" s="8">
-        <f>C$12+C$5*F128</f>
+        <f t="shared" si="4"/>
         <v>149.75</v>
       </c>
       <c r="H128" s="9">
-        <f>ASIN((G128/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.64225169385727521</v>
       </c>
       <c r="I128" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.499340959732518</v>
       </c>
       <c r="J128" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.6320535592285346E-2</v>
       </c>
     </row>
@@ -3088,19 +3017,19 @@
         <v>1.06</v>
       </c>
       <c r="G129" s="8">
-        <f>C$12+C$5*F129</f>
+        <f t="shared" si="4"/>
         <v>150.69999999999999</v>
       </c>
       <c r="H129" s="9">
-        <f>ASIN((G129/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.64700572182989236</v>
       </c>
       <c r="I129" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4945869317599008</v>
       </c>
       <c r="J129" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.6556391616641619E-2</v>
       </c>
     </row>
@@ -3109,19 +3038,19 @@
         <v>1.07</v>
       </c>
       <c r="G130" s="8">
-        <f>C$12+C$5*F130</f>
+        <f t="shared" si="4"/>
         <v>151.65</v>
       </c>
       <c r="H130" s="9">
-        <f>ASIN((G130/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.6517768862972857</v>
       </c>
       <c r="I130" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4898157672925074</v>
       </c>
       <c r="J130" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.6796302543506769E-2</v>
       </c>
     </row>
@@ -3130,19 +3059,19 @@
         <v>1.08</v>
       </c>
       <c r="G131" s="8">
-        <f>C$12+C$5*F131</f>
+        <f t="shared" si="4"/>
         <v>152.60000000000002</v>
       </c>
       <c r="H131" s="9">
-        <f>ASIN((G131/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.65656548372271706</v>
       </c>
       <c r="I131" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4850271698670761</v>
       </c>
       <c r="J131" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.7040363956039073E-2</v>
       </c>
     </row>
@@ -3151,19 +3080,19 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G132" s="8">
-        <f>C$12+C$5*F132</f>
+        <f t="shared" si="4"/>
         <v>153.55000000000001</v>
       </c>
       <c r="H132" s="9">
-        <f>ASIN((G132/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.66137181763371222</v>
       </c>
       <c r="I132" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4802208359560809</v>
       </c>
       <c r="J132" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.7288674753932298E-2</v>
       </c>
     </row>
@@ -3172,19 +3101,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G133" s="8">
-        <f>C$12+C$5*F133</f>
+        <f t="shared" si="4"/>
         <v>154.5</v>
       </c>
       <c r="H133" s="9">
-        <f>ASIN((G133/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.666196198869489</v>
       </c>
       <c r="I133" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.475396454720304</v>
       </c>
       <c r="J133" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.7541337300876414E-2</v>
       </c>
     </row>
@@ -3193,19 +3122,19 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="G134" s="8">
-        <f>C$12+C$5*F134</f>
+        <f t="shared" si="4"/>
         <v>155.44999999999999</v>
       </c>
       <c r="H134" s="9">
-        <f>ASIN((G134/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.67103894583949841</v>
       </c>
       <c r="I134" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4705537077502946</v>
       </c>
       <c r="J134" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.779845758013181E-2</v>
       </c>
     </row>
@@ -3214,19 +3143,19 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G135" s="8">
-        <f>C$12+C$5*F135</f>
+        <f t="shared" si="4"/>
         <v>156.4</v>
       </c>
       <c r="H135" s="9">
-        <f>ASIN((G135/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.67590038479369441</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4656922687960989</v>
       </c>
       <c r="J135" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.8060145358739277E-2</v>
       </c>
     </row>
@@ -3235,19 +3164,19 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G136" s="8">
-        <f>C$12+C$5*F136</f>
+        <f t="shared" si="4"/>
         <v>157.35</v>
       </c>
       <c r="H136" s="9">
-        <f>ASIN((G136/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.68078085010518963</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4608118034846034</v>
       </c>
       <c r="J136" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.8326514360937729E-2</v>
       </c>
     </row>
@@ -3256,19 +3185,19 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="G137" s="8">
-        <f>C$12+C$5*F137</f>
+        <f t="shared" si="4"/>
         <v>158.30000000000001</v>
       </c>
       <c r="H137" s="9">
-        <f>ASIN((G137/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.68568068456600439</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4559119690237887</v>
       </c>
       <c r="J137" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.8597682451405184E-2</v>
       </c>
     </row>
@@ -3277,19 +3206,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G138" s="8">
-        <f>C$12+C$5*F138</f>
+        <f t="shared" si="4"/>
         <v>159.25</v>
       </c>
       <c r="H138" s="9">
-        <f>ASIN((G138/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.69060023969664863</v>
       </c>
       <c r="I138" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4509924138931445</v>
       </c>
       <c r="J138" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.8873771829019326E-2</v>
       </c>
     </row>
@@ -3298,19 +3227,19 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G139" s="8">
-        <f>C$12+C$5*F139</f>
+        <f t="shared" si="4"/>
         <v>160.19999999999999</v>
       </c>
       <c r="H139" s="9">
-        <f>ASIN((G139/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.69553987607034806</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4460527775194452</v>
       </c>
       <c r="J139" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.9154909231790462E-2</v>
       </c>
     </row>
@@ -3319,19 +3248,19 @@
         <v>1.17</v>
       </c>
       <c r="G140" s="8">
-        <f>C$12+C$5*F140</f>
+        <f t="shared" si="4"/>
         <v>161.14999999999998</v>
       </c>
       <c r="H140" s="9">
-        <f>ASIN((G140/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.70049996365276235</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4410926899370309</v>
       </c>
       <c r="J140" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.9441226153799995E-2</v>
       </c>
     </row>
@@ -3340,19 +3269,19 @@
         <v>1.18</v>
       </c>
       <c r="G141" s="8">
-        <f>C$12+C$5*F141</f>
+        <f t="shared" si="4"/>
         <v>162.1</v>
       </c>
       <c r="H141" s="9">
-        <f>ASIN((G141/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.70548088215811544</v>
       </c>
       <c r="I141" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4361117714316776</v>
       </c>
       <c r="J141" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.9732859074946418E-2</v>
       </c>
     </row>
@@ -3361,19 +3290,19 @@
         <v>1.19</v>
       </c>
       <c r="G142" s="8">
-        <f>C$12+C$5*F142</f>
+        <f t="shared" si="4"/>
         <v>163.05000000000001</v>
       </c>
       <c r="H142" s="9">
-        <f>ASIN((G142/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.71048302142271624</v>
       </c>
       <c r="I142" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4311096321670771</v>
       </c>
       <c r="J142" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.0029949704406569E-2</v>
       </c>
     </row>
@@ -3382,19 +3311,19 @@
         <v>1.2</v>
       </c>
       <c r="G143" s="8">
-        <f>C$12+C$5*F143</f>
+        <f t="shared" si="4"/>
         <v>164</v>
       </c>
       <c r="H143" s="9">
-        <f>ASIN((G143/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.71550678179692073</v>
       </c>
       <c r="I143" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4260858717928722</v>
       </c>
       <c r="J143" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.0332645238869063E-2</v>
       </c>
     </row>
@@ -3403,19 +3332,19 @@
         <v>1.21</v>
       </c>
       <c r="G144" s="8">
-        <f>C$12+C$5*F144</f>
+        <f t="shared" si="4"/>
         <v>164.95</v>
       </c>
       <c r="H144" s="9">
-        <f>ASIN((G144/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.72055257455666066</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4210400790331326</v>
       </c>
       <c r="J144" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.0641098636354371E-2</v>
       </c>
     </row>
@@ -3424,19 +3353,19 @@
         <v>1.22</v>
       </c>
       <c r="G145" s="8">
-        <f>C$12+C$5*F145</f>
+        <f t="shared" si="4"/>
         <v>165.89999999999998</v>
       </c>
       <c r="H145" s="9">
-        <f>ASIN((G145/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.72562082233574743</v>
       </c>
       <c r="I145" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4159718312540459</v>
       </c>
       <c r="J145" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.0955468907213159E-2</v>
       </c>
     </row>
@@ -3445,19 +3374,19 @@
         <v>1.23</v>
       </c>
       <c r="G146" s="8">
-        <f>C$12+C$5*F146</f>
+        <f t="shared" si="4"/>
         <v>166.85</v>
       </c>
       <c r="H146" s="9">
-        <f>ASIN((G146/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.7307119595802466</v>
       </c>
       <c r="I146" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4108806940095464</v>
       </c>
       <c r="J146" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.1275921422992994E-2</v>
       </c>
     </row>
@@ -3466,19 +3395,19 @@
         <v>1.24</v>
       </c>
       <c r="G147" s="8">
-        <f>C$12+C$5*F147</f>
+        <f t="shared" si="4"/>
         <v>167.8</v>
       </c>
       <c r="H147" s="9">
-        <f>ASIN((G147/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.73582643302631801</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4057662205634749</v>
       </c>
       <c r="J147" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.1602628245001299E-2</v>
       </c>
     </row>
@@ -3487,19 +3416,19 @@
         <v>1.25</v>
       </c>
       <c r="G148" s="8">
-        <f>C$12+C$5*F148</f>
+        <f t="shared" si="4"/>
         <v>168.75</v>
       </c>
       <c r="H148" s="9">
-        <f>ASIN((G148/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.74096470220302002</v>
       </c>
       <c r="I148" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.400627951386773</v>
       </c>
       <c r="J148" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.1935768473826656E-2</v>
       </c>
     </row>
@@ -3508,19 +3437,19 @@
         <v>1.26</v>
       </c>
       <c r="G149" s="8">
-        <f>C$12+C$5*F149</f>
+        <f t="shared" si="4"/>
         <v>169.7</v>
       </c>
       <c r="H149" s="9">
-        <f>ASIN((G149/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.74612723996169161</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.3954654136281013</v>
       </c>
       <c r="J149" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.2275528621403851E-2</v>
       </c>
     </row>
@@ -3529,19 +3458,19 @@
         <v>1.27</v>
       </c>
       <c r="G150" s="8">
-        <f>C$12+C$5*F150</f>
+        <f t="shared" si="4"/>
         <v>170.65</v>
       </c>
       <c r="H150" s="9">
-        <f>ASIN((G150/2)/C$14)</f>
+        <f t="shared" si="5"/>
         <v>0.75131453303364693</v>
       </c>
       <c r="I150" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.3902781205561463</v>
       </c>
       <c r="J150" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.2622103007369709E-2</v>
       </c>
     </row>
@@ -3550,19 +3479,19 @@
         <v>1.28</v>
       </c>
       <c r="G151" s="8">
-        <f>C$12+C$5*F151</f>
+        <f t="shared" ref="G151:G214" si="8">C$12+C$5*F151</f>
         <v>171.60000000000002</v>
       </c>
       <c r="H151" s="9">
-        <f>ASIN((G151/2)/C$14)</f>
+        <f t="shared" ref="H151:H214" si="9">ASIN((G151/2)/C$14)</f>
         <v>0.75652708261806056</v>
       </c>
       <c r="I151" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.3850655709717326</v>
       </c>
       <c r="J151" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.2975694181792505E-2</v>
       </c>
     </row>
@@ -3571,19 +3500,19 @@
         <v>1.29</v>
       </c>
       <c r="G152" s="8">
-        <f>C$12+C$5*F152</f>
+        <f t="shared" si="8"/>
         <v>172.55</v>
       </c>
       <c r="H152" s="9">
-        <f>ASIN((G152/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.76176540500206003</v>
       </c>
       <c r="I152" s="10">
-        <f t="shared" ref="I152:I215" si="4">PI()-H152</f>
+        <f t="shared" ref="I152:I215" si="10">PI()-H152</f>
         <v>2.3798272485877332</v>
       </c>
       <c r="J152" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.3336513375990897E-2</v>
       </c>
     </row>
@@ -3592,19 +3521,19 @@
         <v>1.3</v>
       </c>
       <c r="G153" s="8">
-        <f>C$12+C$5*F153</f>
+        <f t="shared" si="8"/>
         <v>173.5</v>
       </c>
       <c r="H153" s="9">
-        <f>ASIN((G153/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.76703003221521449</v>
       </c>
       <c r="I153" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3745626213745785</v>
       </c>
       <c r="J153" s="11">
-        <f t="shared" ref="J153:J216" si="5">$C$15*(I153-I152)</f>
+        <f t="shared" ref="J153:J216" si="11">$C$15*(I153-I152)</f>
         <v>-7.3704780984165552E-2</v>
       </c>
     </row>
@@ -3613,19 +3542,19 @@
         <v>1.31</v>
       </c>
       <c r="G154" s="8">
-        <f>C$12+C$5*F154</f>
+        <f t="shared" si="8"/>
         <v>174.45</v>
       </c>
       <c r="H154" s="9">
-        <f>ASIN((G154/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.77232151272077587</v>
       </c>
       <c r="I154" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3692711408690172</v>
       </c>
       <c r="J154" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.4080727077857844E-2</v>
       </c>
     </row>
@@ -3634,19 +3563,19 @@
         <v>1.32</v>
       </c>
       <c r="G155" s="8">
-        <f>C$12+C$5*F155</f>
+        <f t="shared" si="8"/>
         <v>175.4</v>
       </c>
       <c r="H155" s="9">
-        <f>ASIN((G155/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.77764041214622748</v>
       </c>
       <c r="I155" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3639522414435659</v>
       </c>
       <c r="J155" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.4464591956319381E-2</v>
       </c>
     </row>
@@ -3655,19 +3584,19 @@
         <v>1.33</v>
       </c>
       <c r="G156" s="8">
-        <f>C$12+C$5*F156</f>
+        <f t="shared" si="8"/>
         <v>176.35000000000002</v>
       </c>
       <c r="H156" s="9">
-        <f>ASIN((G156/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.78298731405590916</v>
       </c>
       <c r="I156" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.358605339533884</v>
       </c>
       <c r="J156" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.4856626735546605E-2</v>
       </c>
     </row>
@@ -3676,19 +3605,19 @@
         <v>1.34</v>
       </c>
       <c r="G157" s="8">
-        <f>C$12+C$5*F157</f>
+        <f t="shared" si="8"/>
         <v>177.3</v>
       </c>
       <c r="H157" s="9">
-        <f>ASIN((G157/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.78836282076871567</v>
       </c>
       <c r="I157" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3532298328210777</v>
       </c>
       <c r="J157" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.5257093979288037E-2</v>
       </c>
     </row>
@@ -3697,19 +3626,19 @@
         <v>1.35</v>
       </c>
       <c r="G158" s="8">
-        <f>C$12+C$5*F158</f>
+        <f t="shared" si="8"/>
         <v>178.25</v>
       </c>
       <c r="H158" s="9">
-        <f>ASIN((G158/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.79376755422412759</v>
       </c>
       <c r="I158" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3478250993656653</v>
       </c>
       <c r="J158" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.5666268375773171E-2</v>
       </c>
     </row>
@@ -3718,19 +3647,19 @@
         <v>1.36</v>
       </c>
       <c r="G159" s="8">
-        <f>C$12+C$5*F159</f>
+        <f t="shared" si="8"/>
         <v>179.20000000000002</v>
       </c>
       <c r="H159" s="9">
-        <f>ASIN((G159/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.79920215690010654</v>
       </c>
       <c r="I159" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3423904966896867</v>
       </c>
       <c r="J159" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.6084437463700638E-2</v>
       </c>
     </row>
@@ -3739,19 +3668,19 @@
         <v>1.37</v>
       </c>
       <c r="G160" s="8">
-        <f>C$12+C$5*F160</f>
+        <f t="shared" si="8"/>
         <v>180.15</v>
       </c>
       <c r="H160" s="9">
-        <f>ASIN((G160/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.80466729278670535</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3369253608030878</v>
       </c>
       <c r="J160" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.6511902412384813E-2</v>
       </c>
     </row>
@@ -3760,19 +3689,19 @@
         <v>1.38</v>
       </c>
       <c r="G161" s="8">
-        <f>C$12+C$5*F161</f>
+        <f t="shared" si="8"/>
         <v>181.1</v>
       </c>
       <c r="H161" s="9">
-        <f>ASIN((G161/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.81016364841958355</v>
       </c>
       <c r="I161" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3314290051702096</v>
       </c>
       <c r="J161" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.6948978860294837E-2</v>
       </c>
     </row>
@@ -3781,19 +3710,19 @@
         <v>1.39</v>
       </c>
       <c r="G162" s="8">
-        <f>C$12+C$5*F162</f>
+        <f t="shared" si="8"/>
         <v>182.04999999999998</v>
       </c>
       <c r="H162" s="9">
-        <f>ASIN((G162/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.815691933977988</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3259007196118051</v>
       </c>
       <c r="J162" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.7395997817662376E-2</v>
       </c>
     </row>
@@ -3802,19 +3731,19 @@
         <v>1.4</v>
       </c>
       <c r="G163" s="8">
-        <f>C$12+C$5*F163</f>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="H163" s="9">
-        <f>ASIN((G163/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.82125288445218603</v>
       </c>
       <c r="I163" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3203397691376071</v>
       </c>
       <c r="J163" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.7853306638772324E-2</v>
       </c>
     </row>
@@ -3823,19 +3752,19 @@
         <v>1.41</v>
       </c>
       <c r="G164" s="8">
-        <f>C$12+C$5*F164</f>
+        <f t="shared" si="8"/>
         <v>183.95</v>
       </c>
       <c r="H164" s="9">
-        <f>ASIN((G164/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.82684726088579308</v>
       </c>
       <c r="I164" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3147453927040003</v>
       </c>
       <c r="J164" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.8321270070495608E-2</v>
       </c>
     </row>
@@ -3844,19 +3773,19 @@
         <v>1.42</v>
       </c>
       <c r="G165" s="8">
-        <f>C$12+C$5*F165</f>
+        <f t="shared" si="8"/>
         <v>184.9</v>
       </c>
       <c r="H165" s="9">
-        <f>ASIN((G165/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.83247585169895144</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.3091168018908417</v>
       </c>
       <c r="J165" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.8800271384220189E-2</v>
       </c>
     </row>
@@ -3865,19 +3794,19 @@
         <v>1.43</v>
       </c>
       <c r="G166" s="8">
-        <f>C$12+C$5*F166</f>
+        <f t="shared" si="8"/>
         <v>185.85</v>
       </c>
       <c r="H166" s="9">
-        <f>ASIN((G166/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.83813947409888034</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.303453179490913</v>
       </c>
       <c r="J166" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.9290713599001528E-2</v>
       </c>
     </row>
@@ -3886,19 +3815,19 @@
         <v>1.44</v>
       </c>
       <c r="G167" s="8">
-        <f>C$12+C$5*F167</f>
+        <f t="shared" si="8"/>
         <v>186.79999999999998</v>
       </c>
       <c r="H167" s="9">
-        <f>ASIN((G167/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.84383897558495458</v>
       </c>
       <c r="I167" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2977536780048387</v>
       </c>
       <c r="J167" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-7.9793020805040804E-2</v>
       </c>
     </row>
@@ -3907,19 +3836,19 @@
         <v>1.45</v>
       </c>
       <c r="G168" s="8">
-        <f>C$12+C$5*F168</f>
+        <f t="shared" si="8"/>
         <v>187.75</v>
       </c>
       <c r="H168" s="9">
-        <f>ASIN((G168/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.84957523555616399</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.292017418033629</v>
       </c>
       <c r="J168" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.0307639596934877E-2</v>
       </c>
     </row>
@@ -3928,19 +3857,19 @@
         <v>1.46</v>
       </c>
       <c r="G169" s="8">
-        <f>C$12+C$5*F169</f>
+        <f t="shared" si="8"/>
         <v>188.7</v>
       </c>
       <c r="H169" s="9">
-        <f>ASIN((G169/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.85534916702959696</v>
       </c>
       <c r="I169" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2862434865601964</v>
       </c>
       <c r="J169" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.0835040628056909E-2</v>
       </c>
     </row>
@@ -3949,19 +3878,19 @@
         <v>1.47</v>
       </c>
       <c r="G170" s="8">
-        <f>C$12+C$5*F170</f>
+        <f t="shared" si="8"/>
         <v>189.65</v>
       </c>
       <c r="H170" s="9">
-        <f>ASIN((G170/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.8611617184794601</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2804309351103331</v>
       </c>
       <c r="J170" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.1375720298085596E-2</v>
       </c>
     </row>
@@ -3970,19 +3899,19 @@
         <v>1.48</v>
       </c>
       <c r="G171" s="8">
-        <f>C$12+C$5*F171</f>
+        <f t="shared" si="8"/>
         <v>190.6</v>
       </c>
       <c r="H171" s="9">
-        <f>ASIN((G171/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.86701387580712297</v>
       </c>
       <c r="I171" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2745787777826703</v>
       </c>
       <c r="J171" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.1930202587280121E-2</v>
       </c>
     </row>
@@ -3991,19 +3920,19 @@
         <v>1.49</v>
       </c>
       <c r="G172" s="8">
-        <f>C$12+C$5*F172</f>
+        <f t="shared" si="8"/>
         <v>191.55</v>
       </c>
       <c r="H172" s="9">
-        <f>ASIN((G172/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.87290666445378651</v>
       </c>
       <c r="I172" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2686859891360065</v>
       </c>
       <c r="J172" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.2499041053292643E-2</v>
       </c>
     </row>
@@ -4012,19 +3941,19 @@
         <v>1.5</v>
       </c>
       <c r="G173" s="8">
-        <f>C$12+C$5*F173</f>
+        <f t="shared" si="8"/>
         <v>192.5</v>
       </c>
       <c r="H173" s="9">
-        <f>ASIN((G173/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.87884115166857979</v>
       </c>
       <c r="I173" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2627515019212132</v>
       </c>
       <c r="J173" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.3082821007105956E-2</v>
       </c>
     </row>
@@ -4033,19 +3962,19 @@
         <v>1.51</v>
       </c>
       <c r="G174" s="8">
-        <f>C$12+C$5*F174</f>
+        <f t="shared" si="8"/>
         <v>193.45</v>
       </c>
       <c r="H174" s="9">
-        <f>ASIN((G174/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.88481844894630268</v>
       </c>
       <c r="I174" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2567742046434907</v>
       </c>
       <c r="J174" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.3682161888115836E-2</v>
       </c>
     </row>
@@ -4054,19 +3983,19 @@
         <v>1.52</v>
       </c>
       <c r="G175" s="8">
-        <f>C$12+C$5*F175</f>
+        <f t="shared" si="8"/>
         <v>194.4</v>
       </c>
       <c r="H175" s="9">
-        <f>ASIN((G175/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.8908397146505681</v>
       </c>
       <c r="I175" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2507529389392249</v>
       </c>
       <c r="J175" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.4297719859720566E-2</v>
       </c>
     </row>
@@ -4075,19 +4004,19 @@
         <v>1.53</v>
       </c>
       <c r="G176" s="8">
-        <f>C$12+C$5*F176</f>
+        <f t="shared" si="8"/>
         <v>195.35</v>
       </c>
       <c r="H176" s="9">
-        <f>ASIN((G176/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.89690615683986508</v>
       </c>
       <c r="I176" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.244686496749928</v>
       </c>
       <c r="J176" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.4930190650156057E-2</v>
       </c>
     </row>
@@ -4096,19 +4025,19 @@
         <v>1.54</v>
       </c>
       <c r="G177" s="8">
-        <f>C$12+C$5*F177</f>
+        <f t="shared" si="8"/>
         <v>196.3</v>
       </c>
       <c r="H177" s="9">
-        <f>ASIN((G177/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.90301903631606528</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2385736172737278</v>
       </c>
       <c r="J177" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.5580312666802882E-2</v>
       </c>
     </row>
@@ -4117,19 +4046,19 @@
         <v>1.55</v>
       </c>
       <c r="G178" s="8">
-        <f>C$12+C$5*F178</f>
+        <f t="shared" si="8"/>
         <v>197.25</v>
       </c>
       <c r="H178" s="9">
-        <f>ASIN((G178/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.90917966991712929</v>
       </c>
       <c r="I178" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2324129836726638</v>
       </c>
       <c r="J178" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.6248870414896039E-2</v>
       </c>
     </row>
@@ -4138,19 +4067,19 @@
         <v>1.56</v>
       </c>
       <c r="G179" s="8">
-        <f>C$12+C$5*F179</f>
+        <f t="shared" si="8"/>
         <v>198.20000000000002</v>
       </c>
       <c r="H179" s="9">
-        <f>ASIN((G179/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.9153894340783546</v>
       </c>
       <c r="I179" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2262032195114383</v>
       </c>
       <c r="J179" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.6936698257157552E-2</v>
       </c>
     </row>
@@ -4159,19 +4088,19 @@
         <v>1.57</v>
       </c>
       <c r="G180" s="8">
-        <f>C$12+C$5*F180</f>
+        <f t="shared" si="8"/>
         <v>199.15</v>
       </c>
       <c r="H180" s="9">
-        <f>ASIN((G180/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.9216497686894084</v>
       </c>
       <c r="I180" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2199428849003846</v>
       </c>
       <c r="J180" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.7644684554751606E-2</v>
       </c>
     </row>
@@ -4180,19 +4109,19 @@
         <v>1.58</v>
       </c>
       <c r="G181" s="8">
-        <f>C$12+C$5*F181</f>
+        <f t="shared" si="8"/>
         <v>200.1</v>
       </c>
       <c r="H181" s="9">
-        <f>ASIN((G181/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.92796218127772434</v>
       </c>
       <c r="I181" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2136304723120688</v>
       </c>
       <c r="J181" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.837377623642162E-2</v>
       </c>
     </row>
@@ -4201,19 +4130,19 @@
         <v>1.59</v>
       </c>
       <c r="G182" s="8">
-        <f>C$12+C$5*F182</f>
+        <f t="shared" si="8"/>
         <v>201.05</v>
       </c>
       <c r="H182" s="9">
-        <f>ASIN((G182/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.93432825155264509</v>
       </c>
       <c r="I182" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2072644020371479</v>
       </c>
       <c r="J182" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.9124983848892114E-2</v>
       </c>
     </row>
@@ -4222,19 +4151,19 @@
         <v>1.6</v>
       </c>
       <c r="G183" s="8">
-        <f>C$12+C$5*F183</f>
+        <f t="shared" si="8"/>
         <v>202</v>
       </c>
       <c r="H183" s="9">
-        <f>ASIN((G183/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.94074963634905651</v>
       </c>
       <c r="I183" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.2008430172407367</v>
       </c>
       <c r="J183" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-8.9899387149756649E-2</v>
       </c>
     </row>
@@ -4243,19 +4172,19 @@
         <v>1.61</v>
       </c>
       <c r="G184" s="8">
-        <f>C$12+C$5*F184</f>
+        <f t="shared" si="8"/>
         <v>202.95000000000002</v>
       </c>
       <c r="H184" s="9">
-        <f>ASIN((G184/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.94722807501427542</v>
       </c>
       <c r="I184" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1943645785755175</v>
       </c>
       <c r="J184" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.0698141313069414E-2</v>
       </c>
     </row>
@@ -4264,19 +4193,19 @@
         <v>1.62</v>
       </c>
       <c r="G185" s="8">
-        <f>C$12+C$5*F185</f>
+        <f t="shared" si="8"/>
         <v>203.9</v>
       </c>
       <c r="H185" s="9">
-        <f>ASIN((G185/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.95376539528772886</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1878272583020641</v>
       </c>
       <c r="J185" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.1522483828346601E-2</v>
       </c>
     </row>
@@ -4285,19 +4214,19 @@
         <v>1.63</v>
       </c>
       <c r="G186" s="8">
-        <f>C$12+C$5*F186</f>
+        <f t="shared" si="8"/>
         <v>204.85</v>
       </c>
       <c r="H186" s="9">
-        <f>ASIN((G186/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.96036351972964085</v>
       </c>
       <c r="I186" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1812291338601524</v>
       </c>
       <c r="J186" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.2373742186764751E-2</v>
       </c>
     </row>
@@ -4306,19 +4235,19 @@
         <v>1.64</v>
       </c>
       <c r="G187" s="8">
-        <f>C$12+C$5*F187</f>
+        <f t="shared" si="8"/>
         <v>205.79999999999998</v>
       </c>
       <c r="H187" s="9">
-        <f>ASIN((G187/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.96702447276268177</v>
       </c>
       <c r="I187" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1745681808271113</v>
       </c>
       <c r="J187" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.3253342462574551E-2</v>
       </c>
     </row>
@@ -4327,19 +4256,19 @@
         <v>1.65</v>
       </c>
       <c r="G188" s="8">
-        <f>C$12+C$5*F188</f>
+        <f t="shared" si="8"/>
         <v>206.75</v>
       </c>
       <c r="H188" s="9">
-        <f>ASIN((G188/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.97375038839952788</v>
       </c>
       <c r="I188" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1678422651902651</v>
       </c>
       <c r="J188" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.4162818915846991E-2</v>
       </c>
     </row>
@@ -4348,19 +4277,19 @@
         <v>1.66</v>
       </c>
       <c r="G189" s="8">
-        <f>C$12+C$5*F189</f>
+        <f t="shared" si="8"/>
         <v>207.7</v>
       </c>
       <c r="H189" s="9">
-        <f>ASIN((G189/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.98054351873975742</v>
       </c>
       <c r="I189" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1610491348500358</v>
       </c>
       <c r="J189" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.5103824763210554E-2</v>
       </c>
     </row>
@@ -4369,19 +4298,19 @@
         <v>1.67</v>
       </c>
       <c r="G190" s="8">
-        <f>C$12+C$5*F190</f>
+        <f t="shared" si="8"/>
         <v>208.65</v>
       </c>
       <c r="H190" s="9">
-        <f>ASIN((G190/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.98740624333178162</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1541864102580117</v>
       </c>
       <c r="J190" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.6078144288337164E-2</v>
       </c>
     </row>
@@ -4390,19 +4319,19 @@
         <v>1.68</v>
       </c>
       <c r="G191" s="8">
-        <f>C$12+C$5*F191</f>
+        <f t="shared" si="8"/>
         <v>209.6</v>
       </c>
       <c r="H191" s="9">
-        <f>ASIN((G191/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>0.99434107950988404</v>
       </c>
       <c r="I191" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1472515740799092</v>
       </c>
       <c r="J191" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.7087706493435455E-2</v>
       </c>
     </row>
@@ -4411,19 +4340,19 @@
         <v>1.69</v>
       </c>
       <c r="G192" s="8">
-        <f>C$12+C$5*F192</f>
+        <f t="shared" si="8"/>
         <v>210.54999999999998</v>
       </c>
       <c r="H192" s="9">
-        <f>ASIN((G192/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0013506938334014</v>
       </c>
       <c r="I192" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1402419597563918</v>
       </c>
       <c r="J192" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.8134600529244054E-2</v>
       </c>
     </row>
@@ -4432,19 +4361,19 @@
         <v>1.7</v>
       </c>
       <c r="G193" s="8">
-        <f>C$12+C$5*F193</f>
+        <f t="shared" si="8"/>
         <v>211.5</v>
       </c>
       <c r="H193" s="9">
-        <f>ASIN((G193/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0084379147750842</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1331547388147092</v>
       </c>
       <c r="J193" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.9221093183555986E-2</v>
       </c>
     </row>
@@ -4453,19 +4382,19 @@
         <v>1.71</v>
       </c>
       <c r="G194" s="8">
-        <f>C$12+C$5*F194</f>
+        <f t="shared" si="8"/>
         <v>212.45</v>
       </c>
       <c r="H194" s="9">
-        <f>ASIN((G194/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0156057468294595</v>
       </c>
       <c r="I194" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1259869067603336</v>
       </c>
       <c r="J194" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10034964876125763</v>
       </c>
     </row>
@@ -4474,19 +4403,19 @@
         <v>1.72</v>
       </c>
       <c r="G195" s="8">
-        <f>C$12+C$5*F195</f>
+        <f t="shared" si="8"/>
         <v>213.4</v>
       </c>
       <c r="H195" s="9">
-        <f>ASIN((G195/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0228573862402934</v>
       </c>
       <c r="I195" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1187352673494999</v>
       </c>
       <c r="J195" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10152295175167225</v>
       </c>
     </row>
@@ -4495,19 +4424,19 @@
         <v>1.73</v>
       </c>
       <c r="G196" s="8">
-        <f>C$12+C$5*F196</f>
+        <f t="shared" si="8"/>
         <v>214.35</v>
       </c>
       <c r="H196" s="9">
-        <f>ASIN((G196/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0301962385801222</v>
       </c>
       <c r="I196" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1113964150096711</v>
       </c>
       <c r="J196" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10274393275760296</v>
       </c>
     </row>
@@ -4516,19 +4445,19 @@
         <v>1.74</v>
       </c>
       <c r="G197" s="8">
-        <f>C$12+C$5*F197</f>
+        <f t="shared" si="8"/>
         <v>215.3</v>
       </c>
       <c r="H197" s="9">
-        <f>ASIN((G197/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0376259384554785</v>
       </c>
       <c r="I197" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.1039667151343147</v>
       </c>
       <c r="J197" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10401579825499052</v>
       </c>
     </row>
@@ -4537,19 +4466,19 @@
         <v>1.75</v>
       </c>
       <c r="G198" s="8">
-        <f>C$12+C$5*F198</f>
+        <f t="shared" si="8"/>
         <v>216.25</v>
       </c>
       <c r="H198" s="9">
-        <f>ASIN((G198/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.045150371660533</v>
       </c>
       <c r="I198" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0964422819292601</v>
       </c>
       <c r="J198" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10534206487076414</v>
       </c>
     </row>
@@ -4558,19 +4487,19 @@
         <v>1.76</v>
       </c>
       <c r="G199" s="8">
-        <f>C$12+C$5*F199</f>
+        <f t="shared" si="8"/>
         <v>217.2</v>
       </c>
       <c r="H199" s="9">
-        <f>ASIN((G199/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0527737001614157</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0888189534283774</v>
       </c>
       <c r="J199" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10672659901235715</v>
       </c>
     </row>
@@ -4579,19 +4508,19 @@
         <v>1.77</v>
       </c>
       <c r="G200" s="8">
-        <f>C$12+C$5*F200</f>
+        <f t="shared" si="8"/>
         <v>218.15</v>
       </c>
       <c r="H200" s="9">
-        <f>ASIN((G200/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0605003903660442</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.081092263223749</v>
       </c>
       <c r="J200" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.10817366286479846</v>
       </c>
     </row>
@@ -4600,19 +4529,19 @@
         <v>1.78</v>
       </c>
       <c r="G201" s="8">
-        <f>C$12+C$5*F201</f>
+        <f t="shared" si="8"/>
         <v>219.1</v>
       </c>
       <c r="H201" s="9">
-        <f>ASIN((G201/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0683352452232622</v>
       </c>
       <c r="I201" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0732574083665307</v>
       </c>
       <c r="J201" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.1096879680010554</v>
       </c>
     </row>
@@ -4621,19 +4550,19 @@
         <v>1.79</v>
       </c>
       <c r="G202" s="8">
-        <f>C$12+C$5*F202</f>
+        <f t="shared" si="8"/>
         <v>220.05</v>
       </c>
       <c r="H202" s="9">
-        <f>ASIN((G202/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0762834408047506</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0653092127850425</v>
       </c>
       <c r="J202" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.11127473814083455</v>
       </c>
     </row>
@@ -4642,19 +4571,19 @@
         <v>1.8</v>
       </c>
       <c r="G203" s="8">
-        <f>C$12+C$5*F203</f>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="H203" s="9">
-        <f>ASIN((G203/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0843505681591437</v>
       </c>
       <c r="I203" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0572420854306497</v>
       </c>
       <c r="J203" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.11293978296149998</v>
       </c>
     </row>
@@ -4663,19 +4592,19 @@
         <v>1.81</v>
       </c>
       <c r="G204" s="8">
-        <f>C$12+C$5*F204</f>
+        <f t="shared" si="8"/>
         <v>221.95000000000002</v>
       </c>
       <c r="H204" s="9">
-        <f>ASIN((G204/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.0925426813975316</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0490499721922615</v>
       </c>
       <c r="J204" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.11468958533743479</v>
       </c>
     </row>
@@ -4684,19 +4613,19 @@
         <v>1.82</v>
       </c>
       <c r="G205" s="8">
-        <f>C$12+C$5*F205</f>
+        <f t="shared" si="8"/>
         <v>222.9</v>
       </c>
       <c r="H205" s="9">
-        <f>ASIN((G205/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1008663531827789</v>
       </c>
       <c r="I205" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0407263004070142</v>
       </c>
       <c r="J205" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.11653140499346204</v>
       </c>
     </row>
@@ -4705,19 +4634,19 @@
         <v>1.83</v>
       </c>
       <c r="G206" s="8">
-        <f>C$12+C$5*F206</f>
+        <f t="shared" si="8"/>
         <v>223.85</v>
       </c>
       <c r="H206" s="9">
-        <f>ASIN((G206/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1093287390650171</v>
       </c>
       <c r="I206" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0322639145247763</v>
       </c>
       <c r="J206" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.11847340235133075</v>
       </c>
     </row>
@@ -4726,19 +4655,19 @@
         <v>1.84</v>
       </c>
       <c r="G207" s="8">
-        <f>C$12+C$5*F207</f>
+        <f t="shared" si="8"/>
         <v>224.8</v>
       </c>
       <c r="H207" s="9">
-        <f>ASIN((G207/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.117937652449924</v>
       </c>
       <c r="I207" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0236550011398693</v>
       </c>
       <c r="J207" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.12052478738869787</v>
       </c>
     </row>
@@ -4747,19 +4676,19 @@
         <v>1.85</v>
       </c>
       <c r="G208" s="8">
-        <f>C$12+C$5*F208</f>
+        <f t="shared" si="8"/>
         <v>225.75</v>
       </c>
       <c r="H208" s="9">
-        <f>ASIN((G208/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.126701652429082</v>
       </c>
       <c r="I208" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0148910011607111</v>
       </c>
       <c r="J208" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.1226959997082151</v>
       </c>
     </row>
@@ -4768,19 +4697,19 @@
         <v>1.86</v>
       </c>
       <c r="G209" s="8">
-        <f>C$12+C$5*F209</f>
+        <f t="shared" si="8"/>
         <v>226.70000000000002</v>
       </c>
       <c r="H209" s="9">
-        <f>ASIN((G209/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1356301472759838</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0059625063138093</v>
       </c>
       <c r="J209" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.12499892785662414</v>
       </c>
     </row>
@@ -4789,19 +4718,19 @@
         <v>1.87</v>
       </c>
       <c r="G210" s="8">
-        <f>C$12+C$5*F210</f>
+        <f t="shared" si="8"/>
         <v>227.65</v>
       </c>
       <c r="H210" s="9">
-        <f>ASIN((G210/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1447335171632596</v>
       </c>
       <c r="I210" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9968591364265336</v>
       </c>
       <c r="J210" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.12744717842186093</v>
       </c>
     </row>
@@ -4810,19 +4739,19 @@
         <v>1.88</v>
       </c>
       <c r="G211" s="8">
-        <f>C$12+C$5*F211</f>
+        <f t="shared" si="8"/>
         <v>228.6</v>
       </c>
       <c r="H211" s="9">
-        <f>ASIN((G211/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1540232606515299</v>
       </c>
       <c r="I211" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9875693929382632</v>
       </c>
       <c r="J211" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.1300564088357854</v>
       </c>
     </row>
@@ -4831,19 +4760,19 @@
         <v>1.89</v>
       </c>
       <c r="G212" s="8">
-        <f>C$12+C$5*F212</f>
+        <f t="shared" si="8"/>
         <v>229.54999999999998</v>
       </c>
       <c r="H212" s="9">
-        <f>ASIN((G212/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1635121708307428</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9780804827590504</v>
       </c>
       <c r="J212" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.1328447425089796</v>
       </c>
     </row>
@@ -4852,19 +4781,19 @@
         <v>1.9</v>
       </c>
       <c r="G213" s="8">
-        <f>C$12+C$5*F213</f>
+        <f t="shared" si="8"/>
         <v>230.5</v>
       </c>
       <c r="H213" s="9">
-        <f>ASIN((G213/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1732145487953975</v>
       </c>
       <c r="I213" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9683781047943956</v>
       </c>
       <c r="J213" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.13583329150516699</v>
       </c>
     </row>
@@ -4873,19 +4802,19 @@
         <v>1.91</v>
       </c>
       <c r="G214" s="8">
-        <f>C$12+C$5*F214</f>
+        <f t="shared" si="8"/>
         <v>231.45</v>
       </c>
       <c r="H214" s="9">
-        <f>ASIN((G214/2)/C$14)</f>
+        <f t="shared" si="9"/>
         <v>1.1831464646032455</v>
       </c>
       <c r="I214" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9584461889865477</v>
       </c>
       <c r="J214" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.13904682130987078</v>
       </c>
     </row>
@@ -4894,19 +4823,19 @@
         <v>1.92</v>
       </c>
       <c r="G215" s="8">
-        <f>C$12+C$5*F215</f>
+        <f t="shared" ref="G215:G278" si="12">C$12+C$5*F215</f>
         <v>232.4</v>
       </c>
       <c r="H215" s="9">
-        <f>ASIN((G215/2)/C$14)</f>
+        <f t="shared" ref="H215:H278" si="13">ASIN((G215/2)/C$14)</f>
         <v>1.1933260792981484</v>
       </c>
       <c r="I215" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9482665742916447</v>
       </c>
       <c r="J215" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.14251460572864083</v>
       </c>
     </row>
@@ -4915,19 +4844,19 @@
         <v>1.93</v>
       </c>
       <c r="G216" s="8">
-        <f>C$12+C$5*F216</f>
+        <f t="shared" si="12"/>
         <v>233.35</v>
       </c>
       <c r="H216" s="9">
-        <f>ASIN((G216/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2037740464209694</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" ref="I216:I279" si="6">PI()-H216</f>
+        <f t="shared" ref="I216:I279" si="14">PI()-H216</f>
         <v>1.9378186071688237</v>
       </c>
       <c r="J216" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-0.14627153971949447</v>
       </c>
     </row>
@@ -4936,19 +4865,19 @@
         <v>1.94</v>
       </c>
       <c r="G217" s="8">
-        <f>C$12+C$5*F217</f>
+        <f t="shared" si="12"/>
         <v>234.29999999999998</v>
       </c>
       <c r="H217" s="9">
-        <f>ASIN((G217/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2145140183848921</v>
       </c>
       <c r="I217" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.927078635204901</v>
       </c>
       <c r="J217" s="11">
-        <f t="shared" ref="J217:J280" si="7">$C$15*(I217-I216)</f>
+        <f t="shared" ref="J217:J280" si="15">$C$15*(I217-I216)</f>
         <v>-0.15035960749491828</v>
       </c>
     </row>
@@ -4957,19 +4886,19 @@
         <v>1.95</v>
       </c>
       <c r="G218" s="8">
-        <f>C$12+C$5*F218</f>
+        <f t="shared" si="12"/>
         <v>235.25</v>
       </c>
       <c r="H218" s="9">
-        <f>ASIN((G218/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2255732932590753</v>
       </c>
       <c r="I218" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.9160193603307178</v>
       </c>
       <c r="J218" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.15482984823856372</v>
       </c>
     </row>
@@ -4978,19 +4907,19 @@
         <v>1.96</v>
       </c>
       <c r="G219" s="8">
-        <f>C$12+C$5*F219</f>
+        <f t="shared" si="12"/>
         <v>236.2</v>
       </c>
       <c r="H219" s="9">
-        <f>ASIN((G219/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2369836526835938</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.9046090009061993</v>
       </c>
       <c r="J219" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.15974503194325917</v>
       </c>
     </row>
@@ -4999,19 +4928,19 @@
         <v>1.97</v>
       </c>
       <c r="G220" s="8">
-        <f>C$12+C$5*F220</f>
+        <f t="shared" si="12"/>
         <v>237.15</v>
       </c>
       <c r="H220" s="9">
-        <f>ASIN((G220/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2487824648272514</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.8928101887625417</v>
       </c>
       <c r="J220" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.16518337001120686</v>
       </c>
     </row>
@@ -5020,19 +4949,19 @@
         <v>1.98</v>
       </c>
       <c r="G221" s="8">
-        <f>C$12+C$5*F221</f>
+        <f t="shared" si="12"/>
         <v>238.1</v>
       </c>
       <c r="H221" s="9">
-        <f>ASIN((G221/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2610141626538411</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.880578490935952</v>
       </c>
       <c r="J221" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.17124376957225618</v>
       </c>
     </row>
@@ -5041,19 +4970,19 @@
         <v>1.99</v>
       </c>
       <c r="G222" s="8">
-        <f>C$12+C$5*F222</f>
+        <f t="shared" si="12"/>
         <v>239.05</v>
       </c>
       <c r="H222" s="9">
-        <f>ASIN((G222/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2737322664538882</v>
       </c>
       <c r="I222" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.867860387135905</v>
       </c>
       <c r="J222" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.17805345320065813</v>
       </c>
     </row>
@@ -5062,19 +4991,19 @@
         <v>2</v>
       </c>
       <c r="G223" s="8">
-        <f>C$12+C$5*F223</f>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
       <c r="H223" s="9">
-        <f>ASIN((G223/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.2870022175865685</v>
       </c>
       <c r="I223" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.8545904360032246</v>
       </c>
       <c r="J223" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.18577931585752516</v>
       </c>
     </row>
@@ -5083,19 +5012,19 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G224" s="8">
-        <f>C$12+C$5*F224</f>
+        <f t="shared" si="12"/>
         <v>240.95</v>
       </c>
       <c r="H224" s="9">
-        <f>ASIN((G224/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.3009054604383006</v>
       </c>
       <c r="I224" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.8406871931514925</v>
       </c>
       <c r="J224" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.19464539992424879</v>
       </c>
     </row>
@@ -5104,19 +5033,19 @@
         <v>2.02</v>
       </c>
       <c r="G225" s="8">
-        <f>C$12+C$5*F225</f>
+        <f t="shared" si="12"/>
         <v>241.9</v>
       </c>
       <c r="H225" s="9">
-        <f>ASIN((G225/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.3155455184482332</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.8260471351415599</v>
       </c>
       <c r="J225" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.2049608121390567</v>
       </c>
     </row>
@@ -5125,19 +5054,19 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="G226" s="8">
-        <f>C$12+C$5*F226</f>
+        <f t="shared" si="12"/>
         <v>242.85</v>
       </c>
       <c r="H226" s="9">
-        <f>ASIN((G226/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.3310574019581081</v>
       </c>
       <c r="I226" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.810535251631685</v>
       </c>
       <c r="J226" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.21716636913824816</v>
       </c>
     </row>
@@ -5146,19 +5075,19 @@
         <v>2.04</v>
       </c>
       <c r="G227" s="8">
-        <f>C$12+C$5*F227</f>
+        <f t="shared" si="12"/>
         <v>243.8</v>
       </c>
       <c r="H227" s="9">
-        <f>ASIN((G227/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.3476228963447558</v>
       </c>
       <c r="I227" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.7939697572450373</v>
       </c>
       <c r="J227" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.23191692141306897</v>
       </c>
     </row>
@@ -5167,19 +5096,19 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="G228" s="8">
-        <f>C$12+C$5*F228</f>
+        <f t="shared" si="12"/>
         <v>244.74999999999997</v>
       </c>
       <c r="H228" s="9">
-        <f>ASIN((G228/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.3654969629419553</v>
       </c>
       <c r="I228" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.7760956906478378</v>
       </c>
       <c r="J228" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.2502369323607927</v>
       </c>
     </row>
@@ -5188,19 +5117,19 @@
         <v>2.06</v>
       </c>
       <c r="G229" s="8">
-        <f>C$12+C$5*F229</f>
+        <f t="shared" si="12"/>
         <v>245.70000000000002</v>
       </c>
       <c r="H229" s="9">
-        <f>ASIN((G229/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.3850570790419685</v>
       </c>
       <c r="I229" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.7565355745478246</v>
       </c>
       <c r="J229" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.27384162540018453</v>
       </c>
     </row>
@@ -5209,19 +5138,19 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="G230" s="8">
-        <f>C$12+C$5*F230</f>
+        <f t="shared" si="12"/>
         <v>246.64999999999998</v>
       </c>
       <c r="H230" s="9">
-        <f>ASIN((G230/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.4069059117766594</v>
       </c>
       <c r="I230" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.7346867418131338</v>
       </c>
       <c r="J230" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.30588365828567188</v>
       </c>
     </row>
@@ -5230,19 +5159,19 @@
         <v>2.08</v>
       </c>
       <c r="G231" s="8">
-        <f>C$12+C$5*F231</f>
+        <f t="shared" si="12"/>
         <v>247.6</v>
       </c>
       <c r="H231" s="9">
-        <f>ASIN((G231/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.4321211708126447</v>
       </c>
       <c r="I231" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.7094714827771484</v>
       </c>
       <c r="J231" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.35301362650379442</v>
       </c>
     </row>
@@ -5251,19 +5180,19 @@
         <v>2.09</v>
       </c>
       <c r="G232" s="8">
-        <f>C$12+C$5*F232</f>
+        <f t="shared" si="12"/>
         <v>248.54999999999998</v>
       </c>
       <c r="H232" s="9">
-        <f>ASIN((G232/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.4630409060077179</v>
       </c>
       <c r="I232" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.6785517475820753</v>
       </c>
       <c r="J232" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.43287629273102457</v>
       </c>
     </row>
@@ -5272,19 +5201,19 @@
         <v>2.1</v>
       </c>
       <c r="G233" s="8">
-        <f>C$12+C$5*F233</f>
+        <f t="shared" si="12"/>
         <v>249.5</v>
       </c>
       <c r="H233" s="9">
-        <f>ASIN((G233/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>1.5075402279197532</v>
       </c>
       <c r="I233" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.6340524256700399</v>
       </c>
       <c r="J233" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-0.62299050676849443</v>
       </c>
     </row>
@@ -5293,19 +5222,19 @@
         <v>2.11</v>
       </c>
       <c r="G234" s="8">
-        <f>C$12+C$5*F234</f>
+        <f t="shared" si="12"/>
         <v>250.45</v>
       </c>
       <c r="H234" s="9" t="e">
-        <f>ASIN((G234/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I234" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J234" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5314,19 +5243,19 @@
         <v>2.12</v>
       </c>
       <c r="G235" s="8">
-        <f>C$12+C$5*F235</f>
+        <f t="shared" si="12"/>
         <v>251.4</v>
       </c>
       <c r="H235" s="9" t="e">
-        <f>ASIN((G235/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I235" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J235" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5335,19 +5264,19 @@
         <v>2.13</v>
       </c>
       <c r="G236" s="8">
-        <f>C$12+C$5*F236</f>
+        <f t="shared" si="12"/>
         <v>252.35</v>
       </c>
       <c r="H236" s="9" t="e">
-        <f>ASIN((G236/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I236" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J236" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5356,19 +5285,19 @@
         <v>2.14</v>
       </c>
       <c r="G237" s="8">
-        <f>C$12+C$5*F237</f>
+        <f t="shared" si="12"/>
         <v>253.3</v>
       </c>
       <c r="H237" s="9" t="e">
-        <f>ASIN((G237/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I237" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J237" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5377,19 +5306,19 @@
         <v>2.15</v>
       </c>
       <c r="G238" s="8">
-        <f>C$12+C$5*F238</f>
+        <f t="shared" si="12"/>
         <v>254.25</v>
       </c>
       <c r="H238" s="9" t="e">
-        <f>ASIN((G238/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I238" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J238" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5398,19 +5327,19 @@
         <v>2.16</v>
       </c>
       <c r="G239" s="8">
-        <f>C$12+C$5*F239</f>
+        <f t="shared" si="12"/>
         <v>255.20000000000002</v>
       </c>
       <c r="H239" s="9" t="e">
-        <f>ASIN((G239/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I239" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J239" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5419,19 +5348,19 @@
         <v>2.17</v>
       </c>
       <c r="G240" s="8">
-        <f>C$12+C$5*F240</f>
+        <f t="shared" si="12"/>
         <v>256.14999999999998</v>
       </c>
       <c r="H240" s="9" t="e">
-        <f>ASIN((G240/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I240" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J240" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5440,19 +5369,19 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="G241" s="8">
-        <f>C$12+C$5*F241</f>
+        <f t="shared" si="12"/>
         <v>257.10000000000002</v>
       </c>
       <c r="H241" s="9" t="e">
-        <f>ASIN((G241/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I241" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J241" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5461,19 +5390,19 @@
         <v>2.19</v>
       </c>
       <c r="G242" s="8">
-        <f>C$12+C$5*F242</f>
+        <f t="shared" si="12"/>
         <v>258.04999999999995</v>
       </c>
       <c r="H242" s="9" t="e">
-        <f>ASIN((G242/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I242" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J242" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5482,19 +5411,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G243" s="8">
-        <f>C$12+C$5*F243</f>
+        <f t="shared" si="12"/>
         <v>259</v>
       </c>
       <c r="H243" s="9" t="e">
-        <f>ASIN((G243/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I243" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J243" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5503,19 +5432,19 @@
         <v>2.21</v>
       </c>
       <c r="G244" s="8">
-        <f>C$12+C$5*F244</f>
+        <f t="shared" si="12"/>
         <v>259.95</v>
       </c>
       <c r="H244" s="9" t="e">
-        <f>ASIN((G244/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I244" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J244" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5524,19 +5453,19 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="G245" s="8">
-        <f>C$12+C$5*F245</f>
+        <f t="shared" si="12"/>
         <v>260.89999999999998</v>
       </c>
       <c r="H245" s="9" t="e">
-        <f>ASIN((G245/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I245" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J245" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5545,19 +5474,19 @@
         <v>2.23</v>
       </c>
       <c r="G246" s="8">
-        <f>C$12+C$5*F246</f>
+        <f t="shared" si="12"/>
         <v>261.85000000000002</v>
       </c>
       <c r="H246" s="9" t="e">
-        <f>ASIN((G246/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I246" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J246" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5566,19 +5495,19 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="G247" s="8">
-        <f>C$12+C$5*F247</f>
+        <f t="shared" si="12"/>
         <v>262.8</v>
       </c>
       <c r="H247" s="9" t="e">
-        <f>ASIN((G247/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I247" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J247" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5587,19 +5516,19 @@
         <v>2.25</v>
       </c>
       <c r="G248" s="8">
-        <f>C$12+C$5*F248</f>
+        <f t="shared" si="12"/>
         <v>263.75</v>
       </c>
       <c r="H248" s="9" t="e">
-        <f>ASIN((G248/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I248" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J248" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5608,19 +5537,19 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="G249" s="8">
-        <f>C$12+C$5*F249</f>
+        <f t="shared" si="12"/>
         <v>264.7</v>
       </c>
       <c r="H249" s="9" t="e">
-        <f>ASIN((G249/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I249" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J249" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5629,19 +5558,19 @@
         <v>2.27</v>
       </c>
       <c r="G250" s="8">
-        <f>C$12+C$5*F250</f>
+        <f t="shared" si="12"/>
         <v>265.64999999999998</v>
       </c>
       <c r="H250" s="9" t="e">
-        <f>ASIN((G250/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I250" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J250" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5650,19 +5579,19 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="G251" s="8">
-        <f>C$12+C$5*F251</f>
+        <f t="shared" si="12"/>
         <v>266.60000000000002</v>
       </c>
       <c r="H251" s="9" t="e">
-        <f>ASIN((G251/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I251" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J251" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5671,19 +5600,19 @@
         <v>2.29</v>
       </c>
       <c r="G252" s="8">
-        <f>C$12+C$5*F252</f>
+        <f t="shared" si="12"/>
         <v>267.55</v>
       </c>
       <c r="H252" s="9" t="e">
-        <f>ASIN((G252/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I252" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J252" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5692,19 +5621,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G253" s="8">
-        <f>C$12+C$5*F253</f>
+        <f t="shared" si="12"/>
         <v>268.5</v>
       </c>
       <c r="H253" s="9" t="e">
-        <f>ASIN((G253/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I253" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J253" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5713,19 +5642,19 @@
         <v>2.31</v>
       </c>
       <c r="G254" s="8">
-        <f>C$12+C$5*F254</f>
+        <f t="shared" si="12"/>
         <v>269.45000000000005</v>
       </c>
       <c r="H254" s="9" t="e">
-        <f>ASIN((G254/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I254" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J254" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5734,19 +5663,19 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G255" s="8">
-        <f>C$12+C$5*F255</f>
+        <f t="shared" si="12"/>
         <v>270.39999999999998</v>
       </c>
       <c r="H255" s="9" t="e">
-        <f>ASIN((G255/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I255" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J255" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5755,19 +5684,19 @@
         <v>2.33</v>
       </c>
       <c r="G256" s="8">
-        <f>C$12+C$5*F256</f>
+        <f t="shared" si="12"/>
         <v>271.35000000000002</v>
       </c>
       <c r="H256" s="9" t="e">
-        <f>ASIN((G256/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I256" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J256" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5776,19 +5705,19 @@
         <v>2.34</v>
       </c>
       <c r="G257" s="8">
-        <f>C$12+C$5*F257</f>
+        <f t="shared" si="12"/>
         <v>272.29999999999995</v>
       </c>
       <c r="H257" s="9" t="e">
-        <f>ASIN((G257/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I257" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J257" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5797,19 +5726,19 @@
         <v>2.35</v>
       </c>
       <c r="G258" s="8">
-        <f>C$12+C$5*F258</f>
+        <f t="shared" si="12"/>
         <v>273.25</v>
       </c>
       <c r="H258" s="9" t="e">
-        <f>ASIN((G258/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I258" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J258" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5818,19 +5747,19 @@
         <v>2.36</v>
       </c>
       <c r="G259" s="8">
-        <f>C$12+C$5*F259</f>
+        <f t="shared" si="12"/>
         <v>274.2</v>
       </c>
       <c r="H259" s="9" t="e">
-        <f>ASIN((G259/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I259" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J259" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5839,19 +5768,19 @@
         <v>2.37</v>
       </c>
       <c r="G260" s="8">
-        <f>C$12+C$5*F260</f>
+        <f t="shared" si="12"/>
         <v>275.14999999999998</v>
       </c>
       <c r="H260" s="9" t="e">
-        <f>ASIN((G260/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I260" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J260" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5860,19 +5789,19 @@
         <v>2.38</v>
       </c>
       <c r="G261" s="8">
-        <f>C$12+C$5*F261</f>
+        <f t="shared" si="12"/>
         <v>276.10000000000002</v>
       </c>
       <c r="H261" s="9" t="e">
-        <f>ASIN((G261/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I261" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J261" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5881,19 +5810,19 @@
         <v>2.39</v>
       </c>
       <c r="G262" s="8">
-        <f>C$12+C$5*F262</f>
+        <f t="shared" si="12"/>
         <v>277.05</v>
       </c>
       <c r="H262" s="9" t="e">
-        <f>ASIN((G262/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I262" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J262" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5902,19 +5831,19 @@
         <v>2.4</v>
       </c>
       <c r="G263" s="8">
-        <f>C$12+C$5*F263</f>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="H263" s="9" t="e">
-        <f>ASIN((G263/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I263" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J263" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5923,19 +5852,19 @@
         <v>2.41</v>
       </c>
       <c r="G264" s="8">
-        <f>C$12+C$5*F264</f>
+        <f t="shared" si="12"/>
         <v>278.95000000000005</v>
       </c>
       <c r="H264" s="9" t="e">
-        <f>ASIN((G264/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I264" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J264" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5944,19 +5873,19 @@
         <v>2.42</v>
       </c>
       <c r="G265" s="8">
-        <f>C$12+C$5*F265</f>
+        <f t="shared" si="12"/>
         <v>279.89999999999998</v>
       </c>
       <c r="H265" s="9" t="e">
-        <f>ASIN((G265/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I265" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J265" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5965,19 +5894,19 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="G266" s="8">
-        <f>C$12+C$5*F266</f>
+        <f t="shared" si="12"/>
         <v>280.85000000000002</v>
       </c>
       <c r="H266" s="9" t="e">
-        <f>ASIN((G266/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I266" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J266" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -5986,19 +5915,19 @@
         <v>2.44</v>
       </c>
       <c r="G267" s="8">
-        <f>C$12+C$5*F267</f>
+        <f t="shared" si="12"/>
         <v>281.79999999999995</v>
       </c>
       <c r="H267" s="9" t="e">
-        <f>ASIN((G267/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I267" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J267" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6007,19 +5936,19 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="G268" s="8">
-        <f>C$12+C$5*F268</f>
+        <f t="shared" si="12"/>
         <v>282.75</v>
       </c>
       <c r="H268" s="9" t="e">
-        <f>ASIN((G268/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I268" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J268" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6028,19 +5957,19 @@
         <v>2.46</v>
       </c>
       <c r="G269" s="8">
-        <f>C$12+C$5*F269</f>
+        <f t="shared" si="12"/>
         <v>283.7</v>
       </c>
       <c r="H269" s="9" t="e">
-        <f>ASIN((G269/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I269" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J269" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6049,19 +5978,19 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="G270" s="8">
-        <f>C$12+C$5*F270</f>
+        <f t="shared" si="12"/>
         <v>284.64999999999998</v>
       </c>
       <c r="H270" s="9" t="e">
-        <f>ASIN((G270/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I270" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J270" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6070,19 +5999,19 @@
         <v>2.48</v>
       </c>
       <c r="G271" s="8">
-        <f>C$12+C$5*F271</f>
+        <f t="shared" si="12"/>
         <v>285.60000000000002</v>
       </c>
       <c r="H271" s="9" t="e">
-        <f>ASIN((G271/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I271" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J271" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6091,19 +6020,19 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="G272" s="8">
-        <f>C$12+C$5*F272</f>
+        <f t="shared" si="12"/>
         <v>286.55</v>
       </c>
       <c r="H272" s="9" t="e">
-        <f>ASIN((G272/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I272" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J272" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6112,19 +6041,19 @@
         <v>2.5</v>
       </c>
       <c r="G273" s="8">
-        <f>C$12+C$5*F273</f>
+        <f t="shared" si="12"/>
         <v>287.5</v>
       </c>
       <c r="H273" s="9" t="e">
-        <f>ASIN((G273/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I273" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J273" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6133,19 +6062,19 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="G274" s="8">
-        <f>C$12+C$5*F274</f>
+        <f t="shared" si="12"/>
         <v>288.45</v>
       </c>
       <c r="H274" s="9" t="e">
-        <f>ASIN((G274/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I274" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J274" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6154,19 +6083,19 @@
         <v>2.52</v>
       </c>
       <c r="G275" s="8">
-        <f>C$12+C$5*F275</f>
+        <f t="shared" si="12"/>
         <v>289.39999999999998</v>
       </c>
       <c r="H275" s="9" t="e">
-        <f>ASIN((G275/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I275" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J275" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6175,19 +6104,19 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="G276" s="8">
-        <f>C$12+C$5*F276</f>
+        <f t="shared" si="12"/>
         <v>290.35000000000002</v>
       </c>
       <c r="H276" s="9" t="e">
-        <f>ASIN((G276/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I276" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J276" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6196,19 +6125,19 @@
         <v>2.54</v>
       </c>
       <c r="G277" s="8">
-        <f>C$12+C$5*F277</f>
+        <f t="shared" si="12"/>
         <v>291.3</v>
       </c>
       <c r="H277" s="9" t="e">
-        <f>ASIN((G277/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I277" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J277" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6217,19 +6146,19 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="G278" s="8">
-        <f>C$12+C$5*F278</f>
+        <f t="shared" si="12"/>
         <v>292.25</v>
       </c>
       <c r="H278" s="9" t="e">
-        <f>ASIN((G278/2)/C$14)</f>
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
       <c r="I278" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J278" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6238,19 +6167,19 @@
         <v>2.56</v>
       </c>
       <c r="G279" s="8">
-        <f>C$12+C$5*F279</f>
+        <f t="shared" ref="G279:G342" si="16">C$12+C$5*F279</f>
         <v>293.20000000000005</v>
       </c>
       <c r="H279" s="9" t="e">
-        <f>ASIN((G279/2)/C$14)</f>
+        <f t="shared" ref="H279:H342" si="17">ASIN((G279/2)/C$14)</f>
         <v>#NUM!</v>
       </c>
       <c r="I279" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J279" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6259,19 +6188,19 @@
         <v>2.57</v>
       </c>
       <c r="G280" s="8">
-        <f>C$12+C$5*F280</f>
+        <f t="shared" si="16"/>
         <v>294.14999999999998</v>
       </c>
       <c r="H280" s="9" t="e">
-        <f>ASIN((G280/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I280" s="10" t="e">
-        <f t="shared" ref="I280:I337" si="8">PI()-H280</f>
+        <f t="shared" ref="I280:I337" si="18">PI()-H280</f>
         <v>#NUM!</v>
       </c>
       <c r="J280" s="11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6280,19 +6209,19 @@
         <v>2.58</v>
       </c>
       <c r="G281" s="8">
-        <f>C$12+C$5*F281</f>
+        <f t="shared" si="16"/>
         <v>295.10000000000002</v>
       </c>
       <c r="H281" s="9" t="e">
-        <f>ASIN((G281/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I281" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J281" s="11" t="e">
-        <f t="shared" ref="J281:J337" si="9">$C$15*(I281-I280)</f>
+        <f t="shared" ref="J281:J337" si="19">$C$15*(I281-I280)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6301,19 +6230,19 @@
         <v>2.59</v>
       </c>
       <c r="G282" s="8">
-        <f>C$12+C$5*F282</f>
+        <f t="shared" si="16"/>
         <v>296.04999999999995</v>
       </c>
       <c r="H282" s="9" t="e">
-        <f>ASIN((G282/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I282" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J282" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6322,19 +6251,19 @@
         <v>2.6</v>
       </c>
       <c r="G283" s="8">
-        <f>C$12+C$5*F283</f>
+        <f t="shared" si="16"/>
         <v>297</v>
       </c>
       <c r="H283" s="9" t="e">
-        <f>ASIN((G283/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I283" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J283" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6343,19 +6272,19 @@
         <v>2.61</v>
       </c>
       <c r="G284" s="8">
-        <f>C$12+C$5*F284</f>
+        <f t="shared" si="16"/>
         <v>297.95</v>
       </c>
       <c r="H284" s="9" t="e">
-        <f>ASIN((G284/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I284" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J284" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6364,19 +6293,19 @@
         <v>2.62</v>
       </c>
       <c r="G285" s="8">
-        <f>C$12+C$5*F285</f>
+        <f t="shared" si="16"/>
         <v>298.89999999999998</v>
       </c>
       <c r="H285" s="9" t="e">
-        <f>ASIN((G285/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I285" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J285" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6385,19 +6314,19 @@
         <v>2.63</v>
       </c>
       <c r="G286" s="8">
-        <f>C$12+C$5*F286</f>
+        <f t="shared" si="16"/>
         <v>299.85000000000002</v>
       </c>
       <c r="H286" s="9" t="e">
-        <f>ASIN((G286/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I286" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J286" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6406,19 +6335,19 @@
         <v>2.64</v>
       </c>
       <c r="G287" s="8">
-        <f>C$12+C$5*F287</f>
+        <f t="shared" si="16"/>
         <v>300.8</v>
       </c>
       <c r="H287" s="9" t="e">
-        <f>ASIN((G287/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I287" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J287" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6427,19 +6356,19 @@
         <v>2.65</v>
       </c>
       <c r="G288" s="8">
-        <f>C$12+C$5*F288</f>
+        <f t="shared" si="16"/>
         <v>301.75</v>
       </c>
       <c r="H288" s="9" t="e">
-        <f>ASIN((G288/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I288" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J288" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6448,19 +6377,19 @@
         <v>2.66</v>
       </c>
       <c r="G289" s="8">
-        <f>C$12+C$5*F289</f>
+        <f t="shared" si="16"/>
         <v>302.70000000000005</v>
       </c>
       <c r="H289" s="9" t="e">
-        <f>ASIN((G289/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I289" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J289" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6469,19 +6398,19 @@
         <v>2.67</v>
       </c>
       <c r="G290" s="8">
-        <f>C$12+C$5*F290</f>
+        <f t="shared" si="16"/>
         <v>303.64999999999998</v>
       </c>
       <c r="H290" s="9" t="e">
-        <f>ASIN((G290/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I290" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J290" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6490,19 +6419,19 @@
         <v>2.68</v>
       </c>
       <c r="G291" s="8">
-        <f>C$12+C$5*F291</f>
+        <f t="shared" si="16"/>
         <v>304.60000000000002</v>
       </c>
       <c r="H291" s="9" t="e">
-        <f>ASIN((G291/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I291" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J291" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6511,19 +6440,19 @@
         <v>2.69</v>
       </c>
       <c r="G292" s="8">
-        <f>C$12+C$5*F292</f>
+        <f t="shared" si="16"/>
         <v>305.54999999999995</v>
       </c>
       <c r="H292" s="9" t="e">
-        <f>ASIN((G292/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I292" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J292" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6532,19 +6461,19 @@
         <v>2.7</v>
       </c>
       <c r="G293" s="8">
-        <f>C$12+C$5*F293</f>
+        <f t="shared" si="16"/>
         <v>306.5</v>
       </c>
       <c r="H293" s="9" t="e">
-        <f>ASIN((G293/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I293" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J293" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6553,19 +6482,19 @@
         <v>2.71</v>
       </c>
       <c r="G294" s="8">
-        <f>C$12+C$5*F294</f>
+        <f t="shared" si="16"/>
         <v>307.45</v>
       </c>
       <c r="H294" s="9" t="e">
-        <f>ASIN((G294/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I294" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J294" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6574,19 +6503,19 @@
         <v>2.72</v>
       </c>
       <c r="G295" s="8">
-        <f>C$12+C$5*F295</f>
+        <f t="shared" si="16"/>
         <v>308.40000000000003</v>
       </c>
       <c r="H295" s="9" t="e">
-        <f>ASIN((G295/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I295" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J295" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6595,19 +6524,19 @@
         <v>2.73</v>
       </c>
       <c r="G296" s="8">
-        <f>C$12+C$5*F296</f>
+        <f t="shared" si="16"/>
         <v>309.35000000000002</v>
       </c>
       <c r="H296" s="9" t="e">
-        <f>ASIN((G296/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I296" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J296" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6616,19 +6545,19 @@
         <v>2.74</v>
       </c>
       <c r="G297" s="8">
-        <f>C$12+C$5*F297</f>
+        <f t="shared" si="16"/>
         <v>310.3</v>
       </c>
       <c r="H297" s="9" t="e">
-        <f>ASIN((G297/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I297" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J297" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6637,19 +6566,19 @@
         <v>2.75</v>
       </c>
       <c r="G298" s="8">
-        <f>C$12+C$5*F298</f>
+        <f t="shared" si="16"/>
         <v>311.25</v>
       </c>
       <c r="H298" s="9" t="e">
-        <f>ASIN((G298/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I298" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J298" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6658,19 +6587,19 @@
         <v>2.76</v>
       </c>
       <c r="G299" s="8">
-        <f>C$12+C$5*F299</f>
+        <f t="shared" si="16"/>
         <v>312.2</v>
       </c>
       <c r="H299" s="9" t="e">
-        <f>ASIN((G299/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I299" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J299" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6679,19 +6608,19 @@
         <v>2.77</v>
       </c>
       <c r="G300" s="8">
-        <f>C$12+C$5*F300</f>
+        <f t="shared" si="16"/>
         <v>313.14999999999998</v>
       </c>
       <c r="H300" s="9" t="e">
-        <f>ASIN((G300/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I300" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J300" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6700,19 +6629,19 @@
         <v>2.78</v>
       </c>
       <c r="G301" s="8">
-        <f>C$12+C$5*F301</f>
+        <f t="shared" si="16"/>
         <v>314.09999999999997</v>
       </c>
       <c r="H301" s="9" t="e">
-        <f>ASIN((G301/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I301" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J301" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6721,19 +6650,19 @@
         <v>2.79</v>
       </c>
       <c r="G302" s="8">
-        <f>C$12+C$5*F302</f>
+        <f t="shared" si="16"/>
         <v>315.05</v>
       </c>
       <c r="H302" s="9" t="e">
-        <f>ASIN((G302/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I302" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J302" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6742,19 +6671,19 @@
         <v>2.8</v>
       </c>
       <c r="G303" s="8">
-        <f>C$12+C$5*F303</f>
+        <f t="shared" si="16"/>
         <v>316</v>
       </c>
       <c r="H303" s="9" t="e">
-        <f>ASIN((G303/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I303" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J303" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6763,19 +6692,19 @@
         <v>2.81</v>
       </c>
       <c r="G304" s="8">
-        <f>C$12+C$5*F304</f>
+        <f t="shared" si="16"/>
         <v>316.95</v>
       </c>
       <c r="H304" s="9" t="e">
-        <f>ASIN((G304/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I304" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J304" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6784,19 +6713,19 @@
         <v>2.82</v>
       </c>
       <c r="G305" s="8">
-        <f>C$12+C$5*F305</f>
+        <f t="shared" si="16"/>
         <v>317.89999999999998</v>
       </c>
       <c r="H305" s="9" t="e">
-        <f>ASIN((G305/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I305" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J305" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6805,19 +6734,19 @@
         <v>2.83</v>
       </c>
       <c r="G306" s="8">
-        <f>C$12+C$5*F306</f>
+        <f t="shared" si="16"/>
         <v>318.85000000000002</v>
       </c>
       <c r="H306" s="9" t="e">
-        <f>ASIN((G306/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I306" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J306" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6826,19 +6755,19 @@
         <v>2.84</v>
       </c>
       <c r="G307" s="8">
-        <f>C$12+C$5*F307</f>
+        <f t="shared" si="16"/>
         <v>319.8</v>
       </c>
       <c r="H307" s="9" t="e">
-        <f>ASIN((G307/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I307" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J307" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6847,19 +6776,19 @@
         <v>2.85</v>
       </c>
       <c r="G308" s="8">
-        <f>C$12+C$5*F308</f>
+        <f t="shared" si="16"/>
         <v>320.75</v>
       </c>
       <c r="H308" s="9" t="e">
-        <f>ASIN((G308/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I308" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J308" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6868,19 +6797,19 @@
         <v>2.86</v>
       </c>
       <c r="G309" s="8">
-        <f>C$12+C$5*F309</f>
+        <f t="shared" si="16"/>
         <v>321.7</v>
       </c>
       <c r="H309" s="9" t="e">
-        <f>ASIN((G309/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I309" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J309" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6889,19 +6818,19 @@
         <v>2.87</v>
       </c>
       <c r="G310" s="8">
-        <f>C$12+C$5*F310</f>
+        <f t="shared" si="16"/>
         <v>322.65000000000003</v>
       </c>
       <c r="H310" s="9" t="e">
-        <f>ASIN((G310/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I310" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J310" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6910,19 +6839,19 @@
         <v>2.88</v>
       </c>
       <c r="G311" s="8">
-        <f>C$12+C$5*F311</f>
+        <f t="shared" si="16"/>
         <v>323.59999999999997</v>
       </c>
       <c r="H311" s="9" t="e">
-        <f>ASIN((G311/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I311" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J311" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6931,19 +6860,19 @@
         <v>2.89</v>
       </c>
       <c r="G312" s="8">
-        <f>C$12+C$5*F312</f>
+        <f t="shared" si="16"/>
         <v>324.55</v>
       </c>
       <c r="H312" s="9" t="e">
-        <f>ASIN((G312/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I312" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J312" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6952,19 +6881,19 @@
         <v>2.9</v>
       </c>
       <c r="G313" s="8">
-        <f>C$12+C$5*F313</f>
+        <f t="shared" si="16"/>
         <v>325.5</v>
       </c>
       <c r="H313" s="9" t="e">
-        <f>ASIN((G313/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I313" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J313" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6973,19 +6902,19 @@
         <v>2.91</v>
       </c>
       <c r="G314" s="8">
-        <f>C$12+C$5*F314</f>
+        <f t="shared" si="16"/>
         <v>326.45</v>
       </c>
       <c r="H314" s="9" t="e">
-        <f>ASIN((G314/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I314" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J314" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6994,19 +6923,19 @@
         <v>2.92</v>
       </c>
       <c r="G315" s="8">
-        <f>C$12+C$5*F315</f>
+        <f t="shared" si="16"/>
         <v>327.39999999999998</v>
       </c>
       <c r="H315" s="9" t="e">
-        <f>ASIN((G315/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I315" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J315" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7015,19 +6944,19 @@
         <v>2.93</v>
       </c>
       <c r="G316" s="8">
-        <f>C$12+C$5*F316</f>
+        <f t="shared" si="16"/>
         <v>328.35</v>
       </c>
       <c r="H316" s="9" t="e">
-        <f>ASIN((G316/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I316" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J316" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7036,19 +6965,19 @@
         <v>2.94</v>
       </c>
       <c r="G317" s="8">
-        <f>C$12+C$5*F317</f>
+        <f t="shared" si="16"/>
         <v>329.3</v>
       </c>
       <c r="H317" s="9" t="e">
-        <f>ASIN((G317/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I317" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J317" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7057,19 +6986,19 @@
         <v>2.95</v>
       </c>
       <c r="G318" s="8">
-        <f>C$12+C$5*F318</f>
+        <f t="shared" si="16"/>
         <v>330.25</v>
       </c>
       <c r="H318" s="9" t="e">
-        <f>ASIN((G318/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I318" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J318" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7078,19 +7007,19 @@
         <v>2.96</v>
       </c>
       <c r="G319" s="8">
-        <f>C$12+C$5*F319</f>
+        <f t="shared" si="16"/>
         <v>331.2</v>
       </c>
       <c r="H319" s="9" t="e">
-        <f>ASIN((G319/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I319" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J319" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7099,19 +7028,19 @@
         <v>2.97</v>
       </c>
       <c r="G320" s="8">
-        <f>C$12+C$5*F320</f>
+        <f t="shared" si="16"/>
         <v>332.15000000000003</v>
       </c>
       <c r="H320" s="9" t="e">
-        <f>ASIN((G320/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I320" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J320" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7120,19 +7049,19 @@
         <v>2.98</v>
       </c>
       <c r="G321" s="8">
-        <f>C$12+C$5*F321</f>
+        <f t="shared" si="16"/>
         <v>333.1</v>
       </c>
       <c r="H321" s="9" t="e">
-        <f>ASIN((G321/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I321" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J321" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7141,19 +7070,19 @@
         <v>2.99</v>
       </c>
       <c r="G322" s="8">
-        <f>C$12+C$5*F322</f>
+        <f t="shared" si="16"/>
         <v>334.05</v>
       </c>
       <c r="H322" s="9" t="e">
-        <f>ASIN((G322/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I322" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J322" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7162,19 +7091,19 @@
         <v>3</v>
       </c>
       <c r="G323" s="8">
-        <f>C$12+C$5*F323</f>
+        <f t="shared" si="16"/>
         <v>335</v>
       </c>
       <c r="H323" s="9" t="e">
-        <f>ASIN((G323/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I323" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J323" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7183,19 +7112,19 @@
         <v>3.01</v>
       </c>
       <c r="G324" s="8">
-        <f>C$12+C$5*F324</f>
+        <f t="shared" si="16"/>
         <v>335.95</v>
       </c>
       <c r="H324" s="9" t="e">
-        <f>ASIN((G324/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I324" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J324" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7204,19 +7133,19 @@
         <v>3.02</v>
       </c>
       <c r="G325" s="8">
-        <f>C$12+C$5*F325</f>
+        <f t="shared" si="16"/>
         <v>336.9</v>
       </c>
       <c r="H325" s="9" t="e">
-        <f>ASIN((G325/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I325" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J325" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7225,19 +7154,19 @@
         <v>3.03</v>
       </c>
       <c r="G326" s="8">
-        <f>C$12+C$5*F326</f>
+        <f t="shared" si="16"/>
         <v>337.84999999999997</v>
       </c>
       <c r="H326" s="9" t="e">
-        <f>ASIN((G326/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I326" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J326" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7246,19 +7175,19 @@
         <v>3.04</v>
       </c>
       <c r="G327" s="8">
-        <f>C$12+C$5*F327</f>
+        <f t="shared" si="16"/>
         <v>338.8</v>
       </c>
       <c r="H327" s="9" t="e">
-        <f>ASIN((G327/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I327" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J327" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7267,19 +7196,19 @@
         <v>3.05</v>
       </c>
       <c r="G328" s="8">
-        <f>C$12+C$5*F328</f>
+        <f t="shared" si="16"/>
         <v>339.75</v>
       </c>
       <c r="H328" s="9" t="e">
-        <f>ASIN((G328/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I328" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J328" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7288,19 +7217,19 @@
         <v>3.06</v>
       </c>
       <c r="G329" s="8">
-        <f>C$12+C$5*F329</f>
+        <f t="shared" si="16"/>
         <v>340.7</v>
       </c>
       <c r="H329" s="9" t="e">
-        <f>ASIN((G329/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I329" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J329" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7309,19 +7238,19 @@
         <v>3.07</v>
       </c>
       <c r="G330" s="8">
-        <f>C$12+C$5*F330</f>
+        <f t="shared" si="16"/>
         <v>341.65</v>
       </c>
       <c r="H330" s="9" t="e">
-        <f>ASIN((G330/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I330" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J330" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7330,19 +7259,19 @@
         <v>3.08</v>
       </c>
       <c r="G331" s="8">
-        <f>C$12+C$5*F331</f>
+        <f t="shared" si="16"/>
         <v>342.6</v>
       </c>
       <c r="H331" s="9" t="e">
-        <f>ASIN((G331/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I331" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J331" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7351,19 +7280,19 @@
         <v>3.09</v>
       </c>
       <c r="G332" s="8">
-        <f>C$12+C$5*F332</f>
+        <f t="shared" si="16"/>
         <v>343.55</v>
       </c>
       <c r="H332" s="9" t="e">
-        <f>ASIN((G332/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I332" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J332" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7372,19 +7301,19 @@
         <v>3.1</v>
       </c>
       <c r="G333" s="8">
-        <f>C$12+C$5*F333</f>
+        <f t="shared" si="16"/>
         <v>344.5</v>
       </c>
       <c r="H333" s="9" t="e">
-        <f>ASIN((G333/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I333" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J333" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7393,19 +7322,19 @@
         <v>3.11</v>
       </c>
       <c r="G334" s="8">
-        <f>C$12+C$5*F334</f>
+        <f t="shared" si="16"/>
         <v>345.45</v>
       </c>
       <c r="H334" s="9" t="e">
-        <f>ASIN((G334/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I334" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J334" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7414,19 +7343,19 @@
         <v>3.12</v>
       </c>
       <c r="G335" s="8">
-        <f>C$12+C$5*F335</f>
+        <f t="shared" si="16"/>
         <v>346.40000000000003</v>
       </c>
       <c r="H335" s="9" t="e">
-        <f>ASIN((G335/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I335" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J335" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7435,19 +7364,19 @@
         <v>3.13</v>
       </c>
       <c r="G336" s="8">
-        <f>C$12+C$5*F336</f>
+        <f t="shared" si="16"/>
         <v>347.34999999999997</v>
       </c>
       <c r="H336" s="9" t="e">
-        <f>ASIN((G336/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I336" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J336" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7456,19 +7385,19 @@
         <v>3.14</v>
       </c>
       <c r="G337" s="8">
-        <f>C$12+C$5*F337</f>
+        <f t="shared" si="16"/>
         <v>348.3</v>
       </c>
       <c r="H337" s="9" t="e">
-        <f>ASIN((G337/2)/C$14)</f>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="I337" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>#NUM!</v>
       </c>
       <c r="J337" s="11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7493,8 +7422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CA62E3-DC1A-43E7-85B4-4DB85CE97E36}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
